--- a/EO-EC-TA-full/C4-full.xlsx
+++ b/EO-EC-TA-full/C4-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO-EC-TA-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A3F5BB-617A-4DBE-8DE7-5608401CA32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F46C53-F3AE-44E2-AAAF-3D718DC92093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1865E07C-7008-4143-A9B8-CAD268C11863}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="15">
   <si>
     <t>Chan</t>
   </si>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70EBE88-A39C-4562-A8B9-75FEC720C391}">
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="O122" sqref="O122"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,22 +530,22 @@
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>11.62747829856097</v>
+        <v>11.88873919224071</v>
       </c>
       <c r="C2" s="3">
-        <v>34.259028599526573</v>
+        <v>19.06668182332135</v>
       </c>
       <c r="D2" s="3">
-        <v>4.1233329939963141</v>
+        <v>2.3560778559645139</v>
       </c>
       <c r="E2" s="3">
-        <v>2.385905270984964</v>
+        <v>2.2814800620533209</v>
       </c>
       <c r="F2" s="3">
-        <v>2.2618657350574569</v>
+        <v>2.840602339871106</v>
       </c>
       <c r="G2">
-        <v>54.657610898126258</v>
+        <v>38.433581273450997</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -554,13 +554,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -568,22 +568,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>31.896624108091899</v>
+        <v>13.12494305845677</v>
       </c>
       <c r="C3" s="3">
-        <v>6.9186334103465299</v>
+        <v>18.201163251874299</v>
       </c>
       <c r="D3" s="3">
-        <v>5.5612436305735162</v>
+        <v>2.9587709339834811</v>
       </c>
       <c r="E3" s="3">
-        <v>4.1657956672731729</v>
+        <v>2.340905993816973</v>
       </c>
       <c r="F3" s="3">
-        <v>2.4167564896349671</v>
+        <v>3.3850126499686599</v>
       </c>
       <c r="G3">
-        <v>50.959053305920101</v>
+        <v>40.010795888100191</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -606,22 +606,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>108.3638597574913</v>
+        <v>11.62747829856097</v>
       </c>
       <c r="C4" s="3">
-        <v>29.826625728301408</v>
+        <v>34.259028599526573</v>
       </c>
       <c r="D4" s="3">
-        <v>18.805779583848409</v>
+        <v>4.1233329939963141</v>
       </c>
       <c r="E4" s="3">
-        <v>6.0783923207862287</v>
+        <v>2.385905270984964</v>
       </c>
       <c r="F4" s="3">
-        <v>2.570073959100148</v>
+        <v>2.2618657350574569</v>
       </c>
       <c r="G4">
-        <v>165.6447313495274</v>
+        <v>54.657610898126258</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -644,22 +644,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>17.423927985122521</v>
+        <v>30.805239598852719</v>
       </c>
       <c r="C5" s="3">
-        <v>10.26159440498982</v>
+        <v>8.0220373051071441</v>
       </c>
       <c r="D5" s="3">
-        <v>5.7737387566274672</v>
+        <v>8.043554276913115</v>
       </c>
       <c r="E5" s="3">
-        <v>3.271801773921335</v>
+        <v>2.420831573822491</v>
       </c>
       <c r="F5" s="3">
-        <v>3.0765435987802849</v>
+        <v>2.2011014226754928</v>
       </c>
       <c r="G5">
-        <v>39.807606519441443</v>
+        <v>51.492764177370958</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -682,22 +682,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>24.899346050717391</v>
+        <v>10.560220400950501</v>
       </c>
       <c r="C6" s="3">
-        <v>14.92358381379402</v>
+        <v>34.163598838687278</v>
       </c>
       <c r="D6" s="3">
-        <v>68.73737358385236</v>
+        <v>4.3454725743379914</v>
       </c>
       <c r="E6" s="3">
-        <v>8.2000881272309236</v>
+        <v>2.520813344389278</v>
       </c>
       <c r="F6" s="3">
-        <v>3.19796532068148</v>
+        <v>2.3642046794628131</v>
       </c>
       <c r="G6">
-        <v>119.9583568962762</v>
+        <v>53.954309837827857</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -706,36 +706,36 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>33.272461971106907</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10.72445608097089</v>
-      </c>
-      <c r="D7" s="3">
-        <v>17.61181872202053</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.0903881747153026</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.2399492683108271</v>
+      <c r="B7" s="4">
+        <v>16.50146848544783</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13.1768188898217</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.604673760370126</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.557495449760204</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.0794635607783492</v>
       </c>
       <c r="G7">
-        <v>68.939074217124471</v>
+        <v>36.919920146178207</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -744,36 +744,36 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>22</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
-        <v>6.7641122923568577</v>
-      </c>
-      <c r="C8" s="3">
-        <v>30.591252755153121</v>
-      </c>
-      <c r="D8" s="3">
-        <v>13.483290301784001</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3.5022910084077621</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3.4248425384008438</v>
+      <c r="B8" s="4">
+        <v>19.018982850080171</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.5812022620127753</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.5220180337780782</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.5614558045127751</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.7351820481322719</v>
       </c>
       <c r="G8">
-        <v>57.765788896102592</v>
+        <v>35.418840998516067</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -782,36 +782,36 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>6.2262366809806364</v>
-      </c>
-      <c r="C9" s="3">
-        <v>16.36802941133687</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2.2908096761088301</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.6922424568930281</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.4775016151325548</v>
+      <c r="B9" s="4">
+        <v>18.962164245189228</v>
+      </c>
+      <c r="C9" s="4">
+        <v>11.911074695178</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.5577079908829177</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.6532378518685218</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.96052601331287735</v>
       </c>
       <c r="G9">
-        <v>31.05481984045193</v>
+        <v>39.044710796431538</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>24.47989649170648</v>
+        <v>6.2262366809806364</v>
       </c>
       <c r="C10" s="3">
-        <v>11.589275286982449</v>
+        <v>16.36802941133687</v>
       </c>
       <c r="D10" s="3">
-        <v>15.119691098539191</v>
+        <v>2.2908096761088301</v>
       </c>
       <c r="E10" s="3">
-        <v>4.9349703947816392</v>
+        <v>2.6922424568930281</v>
       </c>
       <c r="F10" s="3">
-        <v>3.598175617086333</v>
+        <v>3.4775016151325548</v>
       </c>
       <c r="G10">
-        <v>59.722008889096067</v>
+        <v>31.05481984045193</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>10.064265560221729</v>
+        <v>13.38231794958206</v>
       </c>
       <c r="C11" s="3">
-        <v>8.779013107464543</v>
+        <v>16.64554476062294</v>
       </c>
       <c r="D11" s="3">
-        <v>10.39433722648797</v>
+        <v>2.7370109295171261</v>
       </c>
       <c r="E11" s="3">
-        <v>5.6069388745088036</v>
+        <v>2.8073593293665269</v>
       </c>
       <c r="F11" s="3">
-        <v>3.6913873825580619</v>
+        <v>3.571682417735345</v>
       </c>
       <c r="G11">
-        <v>38.535942151241109</v>
+        <v>39.143915386824013</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -910,22 +910,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>43.22523710305228</v>
+        <v>10.33685403746227</v>
       </c>
       <c r="C12" s="3">
-        <v>12.729483907845911</v>
+        <v>42.722074408867947</v>
       </c>
       <c r="D12" s="3">
-        <v>30.904966157839841</v>
+        <v>12.45876848663692</v>
       </c>
       <c r="E12" s="3">
-        <v>6.6305893455602112</v>
+        <v>2.8806373555621532</v>
       </c>
       <c r="F12" s="3">
-        <v>3.7306507073332669</v>
+        <v>3.384069533019181</v>
       </c>
       <c r="G12">
-        <v>97.220927221631499</v>
+        <v>71.782403821548485</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -948,22 +948,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>10.310180512744759</v>
+        <v>18.637208529696981</v>
       </c>
       <c r="C13" s="3">
-        <v>36.599694224931199</v>
+        <v>44.692308657422807</v>
       </c>
       <c r="D13" s="3">
-        <v>37.932483047977158</v>
+        <v>3.2537636885285082</v>
       </c>
       <c r="E13" s="3">
-        <v>5.1560811494185668</v>
+        <v>2.8822774492133809</v>
       </c>
       <c r="F13" s="3">
-        <v>3.7896765486777788</v>
+        <v>3.6067243539544291</v>
       </c>
       <c r="G13">
-        <v>93.788115483749451</v>
+        <v>73.072282678816123</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -972,36 +972,36 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
-        <v>28.628636847877999</v>
-      </c>
-      <c r="C14" s="3">
-        <v>17.04897434165402</v>
-      </c>
-      <c r="D14" s="3">
-        <v>63.381237676442581</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6.8685874928584392</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3.8035880926430452</v>
+      <c r="B14" s="4">
+        <v>22.254654961336751</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.3002895199405033</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.697412806962149</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.884248425780672</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.3970346509773401</v>
       </c>
       <c r="G14">
-        <v>119.7310244514761</v>
+        <v>37.53364036499741</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1010,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1024,22 +1024,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>23.10688110817572</v>
+        <v>17.423927985122521</v>
       </c>
       <c r="C15" s="3">
-        <v>8.4944794708548486</v>
+        <v>10.26159440498982</v>
       </c>
       <c r="D15" s="3">
-        <v>19.801173819486689</v>
+        <v>5.7737387566274672</v>
       </c>
       <c r="E15" s="3">
-        <v>9.3374043313459545</v>
+        <v>3.271801773921335</v>
       </c>
       <c r="F15" s="3">
-        <v>4.1206508815414029</v>
+        <v>3.0765435987802849</v>
       </c>
       <c r="G15">
-        <v>64.860589611404635</v>
+        <v>39.807606519441443</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>7.0514263169562739</v>
+        <v>16.636251534564149</v>
       </c>
       <c r="C16" s="3">
-        <v>46.851385682101927</v>
+        <v>21.870439758316049</v>
       </c>
       <c r="D16" s="3">
-        <v>24.280159212776908</v>
+        <v>16.685797239529389</v>
       </c>
       <c r="E16" s="3">
-        <v>5.84643885854336</v>
+        <v>3.3143889346325448</v>
       </c>
       <c r="F16" s="3">
-        <v>4.6588837838111088</v>
+        <v>4.334903536430426</v>
       </c>
       <c r="G16">
-        <v>88.688293854189624</v>
+        <v>62.841781003472562</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1086,36 +1086,36 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <v>24</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
-        <v>73.124246450774351</v>
-      </c>
-      <c r="C17" s="3">
-        <v>38.290535261504523</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7.7907169357927382</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7.3824054523052967</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4.6964903130193738</v>
+      <c r="B17" s="4">
+        <v>19.292843262790011</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7.6702578754812709</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9.6870764887095202</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.3156003625267121</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.0233009520342562</v>
       </c>
       <c r="G17">
-        <v>131.28439441339631</v>
+        <v>41.989078941541777</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1124,36 +1124,36 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>27.726273498517561</v>
+        <v>6.7641122923568577</v>
       </c>
       <c r="C18" s="3">
-        <v>24.913500095563919</v>
+        <v>30.591252755153121</v>
       </c>
       <c r="D18" s="3">
-        <v>32.143924113626127</v>
+        <v>13.483290301784001</v>
       </c>
       <c r="E18" s="3">
-        <v>6.8684726087814703</v>
+        <v>3.5022910084077621</v>
       </c>
       <c r="F18" s="3">
-        <v>5.4944672132507346</v>
+        <v>3.4248425384008438</v>
       </c>
       <c r="G18">
-        <v>97.146637529739849</v>
+        <v>57.765788896102592</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1171,27 +1171,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="3">
-        <v>5.4764948206000881</v>
+        <v>18.024684669798901</v>
       </c>
       <c r="C19" s="3">
-        <v>24.86400464812515</v>
+        <v>8.0038087386052972</v>
       </c>
       <c r="D19" s="3">
-        <v>19.62037640895641</v>
+        <v>7.7901547931650494</v>
       </c>
       <c r="E19" s="3">
-        <v>4.7485476570095333</v>
+        <v>3.5679907639697279</v>
       </c>
       <c r="F19" s="3">
-        <v>6.1216824725572589</v>
+        <v>3.5747648082505319</v>
       </c>
       <c r="G19">
-        <v>60.831106007248451</v>
+        <v>40.961403773789513</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1200,226 +1200,226 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="L19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3">
+        <v>21.793036736817282</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8.9204649685017294</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10.157082152645749</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3.673612450308811</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3.029584316576996</v>
+      </c>
+      <c r="G20">
+        <v>47.573780624850578</v>
+      </c>
+      <c r="H20">
+        <v>0.25</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3">
+        <v>35.078527462332247</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6.4450055398724899</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3.644825464142166</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3.7514500605020009</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3.3364582396535849</v>
+      </c>
+      <c r="G21">
+        <v>52.256266766502478</v>
+      </c>
+      <c r="H21">
+        <v>0.25</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4">
+        <v>22.719310616151819</v>
+      </c>
+      <c r="C22" s="4">
+        <v>13.67657700288007</v>
+      </c>
+      <c r="D22" s="4">
+        <v>8.3103087435923833</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.7807781633755662</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.8944369980397511</v>
+      </c>
+      <c r="G22">
+        <v>51.381411524039613</v>
+      </c>
+      <c r="H22">
+        <v>0.25</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>14</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45.262201897401582</v>
+      </c>
+      <c r="C23" s="4">
+        <v>12.719363064744689</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.8068218008273398</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.8361615727234248</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.5772690079155991</v>
+      </c>
+      <c r="G23">
+        <v>69.201817343612632</v>
+      </c>
+      <c r="H23">
+        <v>0.25</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4">
+        <v>40.334039030001158</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8.040774778641282</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.2879601201929072</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.8372746955692749</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.7208454864186429</v>
+      </c>
+      <c r="G24">
+        <v>59.220894110823281</v>
+      </c>
+      <c r="H24">
+        <v>0.25</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3">
-        <v>7.8051694977078414</v>
-      </c>
-      <c r="C20" s="3">
-        <v>58.12085753439635</v>
-      </c>
-      <c r="D20" s="3">
-        <v>24.257973776274302</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4.9938939836305671</v>
-      </c>
-      <c r="F20" s="3">
-        <v>7.0889539987748531</v>
-      </c>
-      <c r="G20">
-        <v>102.2668487907839</v>
-      </c>
-      <c r="H20">
-        <v>0.25</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>19</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3">
-        <v>36.39083870140901</v>
-      </c>
-      <c r="C21" s="3">
-        <v>24.07030763944142</v>
-      </c>
-      <c r="D21" s="3">
-        <v>86.945001524889577</v>
-      </c>
-      <c r="E21" s="3">
-        <v>16.41362994911151</v>
-      </c>
-      <c r="F21" s="3">
-        <v>7.7754699255019242</v>
-      </c>
-      <c r="G21">
-        <v>171.59524774035339</v>
-      </c>
-      <c r="H21">
-        <v>0.25</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>11</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3">
-        <v>9.666266249598749</v>
-      </c>
-      <c r="C22" s="3">
-        <v>25.585355347306439</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5.127954764398317</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4.2189849704177496</v>
-      </c>
-      <c r="F22" s="3">
-        <v>10.523106083925491</v>
-      </c>
-      <c r="G22">
-        <v>55.121667415646733</v>
-      </c>
-      <c r="H22">
-        <v>0.25</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>23</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1431.4113182237011</v>
-      </c>
-      <c r="C23" s="3">
-        <v>135.7392666544508</v>
-      </c>
-      <c r="D23" s="3">
-        <v>54.651339006886118</v>
-      </c>
-      <c r="E23" s="3">
-        <v>16.476162384679629</v>
-      </c>
-      <c r="F23" s="3">
-        <v>11.52300512198777</v>
-      </c>
-      <c r="G23">
-        <v>1649.8010913917051</v>
-      </c>
-      <c r="H23">
-        <v>0.25</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>21</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="3">
-        <v>11.88873919224071</v>
-      </c>
-      <c r="C24" s="3">
-        <v>19.06668182332135</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2.3560778559645139</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.2814800620533209</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2.840602339871106</v>
-      </c>
-      <c r="G24">
-        <v>38.433581273450997</v>
-      </c>
-      <c r="H24">
-        <v>0.25</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="4">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="3">
-        <v>13.12494305845677</v>
-      </c>
-      <c r="C25" s="3">
-        <v>18.201163251874299</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2.9587709339834811</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.340905993816973</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3.3850126499686599</v>
+      <c r="B25" s="4">
+        <v>55.489790777488643</v>
+      </c>
+      <c r="C25" s="4">
+        <v>16.728498690068129</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.0641805843767624</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3.8816091376464361</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.8180694170614959</v>
       </c>
       <c r="G25">
-        <v>40.010795888100191</v>
+        <v>82.982148606641474</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1428,36 +1428,36 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>30.805239598852719</v>
+        <v>24.438194110554409</v>
       </c>
       <c r="C26" s="3">
-        <v>8.0220373051071441</v>
+        <v>10.851399189477871</v>
       </c>
       <c r="D26" s="3">
-        <v>8.043554276913115</v>
+        <v>4.1694371874830169</v>
       </c>
       <c r="E26" s="3">
-        <v>2.420831573822491</v>
+        <v>3.9433704504868321</v>
       </c>
       <c r="F26" s="3">
-        <v>2.2011014226754928</v>
+        <v>4.0485421633734191</v>
       </c>
       <c r="G26">
-        <v>51.492764177370958</v>
+        <v>47.450943101375557</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1475,27 +1475,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>10.33685403746227</v>
+        <v>143.74542196297469</v>
       </c>
       <c r="C27" s="3">
-        <v>42.722074408867947</v>
+        <v>11.476288741233111</v>
       </c>
       <c r="D27" s="3">
-        <v>12.45876848663692</v>
+        <v>10.154669416837409</v>
       </c>
       <c r="E27" s="3">
-        <v>2.8806373555621532</v>
+        <v>3.9526579287700279</v>
       </c>
       <c r="F27" s="3">
-        <v>3.384069533019181</v>
+        <v>2.353334416042697</v>
       </c>
       <c r="G27">
-        <v>71.782403821548485</v>
+        <v>171.6823724658579</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1513,27 +1513,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="3">
-        <v>16.636251534564149</v>
+        <v>34.944927174596181</v>
       </c>
       <c r="C28" s="3">
-        <v>21.870439758316049</v>
+        <v>10.1786298375561</v>
       </c>
       <c r="D28" s="3">
-        <v>16.685797239529389</v>
+        <v>4.2070670582499368</v>
       </c>
       <c r="E28" s="3">
-        <v>3.3143889346325448</v>
+        <v>4.0029131533094624</v>
       </c>
       <c r="F28" s="3">
-        <v>4.334903536430426</v>
+        <v>2.7321521240141289</v>
       </c>
       <c r="G28">
-        <v>62.841781003472562</v>
+        <v>56.065689347725808</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1542,36 +1542,36 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="3">
-        <v>18.024684669798901</v>
+        <v>33.272461971106907</v>
       </c>
       <c r="C29" s="3">
-        <v>8.0038087386052972</v>
+        <v>10.72445608097089</v>
       </c>
       <c r="D29" s="3">
-        <v>7.7901547931650494</v>
+        <v>17.61181872202053</v>
       </c>
       <c r="E29" s="3">
-        <v>3.5679907639697279</v>
+        <v>4.0903881747153026</v>
       </c>
       <c r="F29" s="3">
-        <v>3.5747648082505319</v>
+        <v>3.2399492683108271</v>
       </c>
       <c r="G29">
-        <v>40.961403773789513</v>
+        <v>68.939074217124471</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1580,36 +1580,39 @@
         <v>0</v>
       </c>
       <c r="J29">
+        <v>22</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="3">
-        <v>21.793036736817282</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C30" s="3">
-        <v>8.9204649685017294</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D30" s="3">
-        <v>10.157082152645749</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E30" s="3">
-        <v>3.673612450308811</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F30" s="3">
-        <v>3.029584316576996</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G30">
-        <v>47.573780624850578</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1618,36 +1621,39 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="O30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="3">
-        <v>35.078527462332247</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C31" s="3">
-        <v>6.4450055398724899</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D31" s="3">
-        <v>3.644825464142166</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E31" s="3">
-        <v>3.7514500605020009</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F31" s="3">
-        <v>3.3364582396535849</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G31">
-        <v>52.256266766502478</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1656,51 +1662,51 @@
         <v>0</v>
       </c>
       <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <v>17.798554303205389</v>
+      </c>
+      <c r="C32" s="3">
+        <v>62.434066566829792</v>
+      </c>
+      <c r="D32" s="3">
+        <v>12.58775981937834</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.1202153391547798</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5.3621852322222141</v>
+      </c>
+      <c r="G32">
+        <v>102.3027812607905</v>
+      </c>
+      <c r="H32">
+        <v>0.25</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="3">
-        <v>24.438194110554409</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10.851399189477871</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4.1694371874830169</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3.9433704504868321</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4.0485421633734191</v>
-      </c>
-      <c r="G32">
-        <v>47.450943101375557</v>
-      </c>
-      <c r="H32">
-        <v>0.25</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>17</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1708,22 +1714,22 @@
         <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>143.74542196297469</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C33" s="3">
-        <v>11.476288741233111</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D33" s="3">
-        <v>10.154669416837409</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E33" s="3">
-        <v>3.9526579287700279</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F33" s="3">
-        <v>2.353334416042697</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G33">
-        <v>171.6823724658579</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1732,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
         <v>14</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1746,22 +1752,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>45.406446064758889</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C34" s="3">
-        <v>31.754194287755809</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D34" s="3">
-        <v>11.517400657711329</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E34" s="3">
-        <v>4.5189165297636968</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F34" s="3">
-        <v>5.4012343400415279</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G34">
-        <v>98.598191880031294</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1770,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1784,22 +1790,22 @@
         <v>11</v>
       </c>
       <c r="B35" s="3">
-        <v>23.141679021931662</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C35" s="3">
-        <v>8.1875352222988127</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D35" s="3">
-        <v>4.0056867957003748</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E35" s="3">
-        <v>4.9503937098207036</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F35" s="3">
-        <v>3.6266057798498741</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G35">
-        <v>43.911900529601418</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1808,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -1822,22 +1828,22 @@
         <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>7.1977102863614766</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C36" s="3">
-        <v>34.580845112955039</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D36" s="3">
-        <v>6.7163185561216601</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E36" s="3">
-        <v>4.9911376544302746</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F36" s="3">
-        <v>6.0625159158979489</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G36">
-        <v>59.548527525766403</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1846,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -1860,22 +1866,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>29.184293086415199</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C37" s="3">
-        <v>10.589589279037231</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D37" s="3">
-        <v>27.348422553377169</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E37" s="3">
-        <v>5.4886159157170207</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F37" s="3">
-        <v>3.1818393381412879</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G37">
-        <v>75.792760172687906</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1884,13 +1890,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -1898,22 +1904,22 @@
         <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>18.873843686500209</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C38" s="3">
-        <v>25.97659929878866</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D38" s="3">
-        <v>4.9524966880317018</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E38" s="3">
-        <v>5.5058429747383189</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F38" s="3">
-        <v>10.603611451405531</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G38">
-        <v>65.912394099464407</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1922,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -1936,22 +1942,22 @@
         <v>11</v>
       </c>
       <c r="B39" s="3">
-        <v>25.336431418748489</v>
+        <v>1430.3602877260801</v>
       </c>
       <c r="C39" s="3">
-        <v>12.555217059775689</v>
+        <v>91.86022491947557</v>
       </c>
       <c r="D39" s="3">
-        <v>44.968550806068613</v>
+        <v>10.62158358504429</v>
       </c>
       <c r="E39" s="3">
-        <v>5.5160504389306668</v>
+        <v>4.1474675517587283</v>
       </c>
       <c r="F39" s="3">
-        <v>3.6438336735119661</v>
+        <v>2.1773851104798569</v>
       </c>
       <c r="G39">
-        <v>92.020083397035421</v>
+        <v>1539.166948892838</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1960,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -1974,22 +1980,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>51.256522624524457</v>
+        <v>31.896624108091899</v>
       </c>
       <c r="C40" s="3">
-        <v>13.62492494276613</v>
+        <v>6.9186334103465299</v>
       </c>
       <c r="D40" s="3">
-        <v>19.922299048318699</v>
+        <v>5.5612436305735162</v>
       </c>
       <c r="E40" s="3">
-        <v>5.8774326138928927</v>
+        <v>4.1657956672731729</v>
       </c>
       <c r="F40" s="3">
-        <v>3.9386091163818731</v>
+        <v>2.4167564896349671</v>
       </c>
       <c r="G40">
-        <v>94.619788345884047</v>
+        <v>50.959053305920101</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1998,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2012,22 +2018,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>21.191950775630641</v>
+        <v>9.666266249598749</v>
       </c>
       <c r="C41" s="3">
-        <v>8.2657489254211391</v>
+        <v>25.585355347306439</v>
       </c>
       <c r="D41" s="3">
-        <v>12.931701365790961</v>
+        <v>5.127954764398317</v>
       </c>
       <c r="E41" s="3">
-        <v>5.9632126271960262</v>
+        <v>4.2189849704177496</v>
       </c>
       <c r="F41" s="3">
-        <v>5.1960202645472169</v>
+        <v>10.523106083925491</v>
       </c>
       <c r="G41">
-        <v>53.548633958585981</v>
+        <v>55.121667415646733</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2036,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2050,22 +2056,22 @@
         <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>19.705767695895489</v>
+        <v>45.406446064758889</v>
       </c>
       <c r="C42" s="3">
-        <v>124.67876362688691</v>
+        <v>31.754194287755809</v>
       </c>
       <c r="D42" s="3">
-        <v>9.8450252819330206</v>
+        <v>11.517400657711329</v>
       </c>
       <c r="E42" s="3">
-        <v>6.3922674996278008</v>
+        <v>4.5189165297636968</v>
       </c>
       <c r="F42" s="3">
-        <v>3.102530976354787</v>
+        <v>5.4012343400415279</v>
       </c>
       <c r="G42">
-        <v>163.72435508069799</v>
+        <v>98.598191880031294</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2074,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2087,23 +2093,23 @@
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="3">
-        <v>69.309906806042989</v>
-      </c>
-      <c r="C43" s="3">
-        <v>38.795935549424229</v>
-      </c>
-      <c r="D43" s="3">
-        <v>7.6486017286009016</v>
-      </c>
-      <c r="E43" s="3">
-        <v>8.4168608531243052</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5.4007679411994278</v>
+      <c r="B43" s="4">
+        <v>20.487165853958</v>
+      </c>
+      <c r="C43" s="4">
+        <v>30.973050620945749</v>
+      </c>
+      <c r="D43" s="4">
+        <v>12.375684238965141</v>
+      </c>
+      <c r="E43" s="4">
+        <v>4.5946679210512142</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3.313456560705403</v>
       </c>
       <c r="G43">
-        <v>129.57207287839191</v>
+        <v>71.744025195625511</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2112,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>10</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>13</v>
@@ -2125,23 +2131,23 @@
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="3">
-        <v>27.687871560461371</v>
-      </c>
-      <c r="C44" s="3">
-        <v>13.13736969334057</v>
-      </c>
-      <c r="D44" s="3">
-        <v>18.71094134291862</v>
-      </c>
-      <c r="E44" s="3">
-        <v>9.9089500028163648</v>
-      </c>
-      <c r="F44" s="3">
-        <v>14.361096780279331</v>
+      <c r="B44" s="4">
+        <v>38.291707317272682</v>
+      </c>
+      <c r="C44" s="4">
+        <v>9.7938728906250532</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2.8054057220158128</v>
+      </c>
+      <c r="E44" s="4">
+        <v>4.6033234381148063</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4.2777187489982724</v>
       </c>
       <c r="G44">
-        <v>83.806229379816244</v>
+        <v>59.772028117026622</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2150,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>20</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>13</v>
@@ -2164,22 +2170,22 @@
         <v>11</v>
       </c>
       <c r="B45" s="3">
-        <v>37.685515302537063</v>
+        <v>5.4764948206000881</v>
       </c>
       <c r="C45" s="3">
-        <v>23.878387790477952</v>
+        <v>24.86400464812515</v>
       </c>
       <c r="D45" s="3">
-        <v>17.325028436573401</v>
+        <v>19.62037640895641</v>
       </c>
       <c r="E45" s="3">
-        <v>12.48743369212723</v>
+        <v>4.7485476570095333</v>
       </c>
       <c r="F45" s="3">
-        <v>6.8498216599242063</v>
+        <v>6.1216824725572589</v>
       </c>
       <c r="G45">
-        <v>98.226186881639848</v>
+        <v>60.831106007248451</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2188,13 +2194,13 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2202,22 +2208,22 @@
         <v>11</v>
       </c>
       <c r="B46" s="3">
-        <v>39.781599638440063</v>
+        <v>14.547059630221939</v>
       </c>
       <c r="C46" s="3">
-        <v>25.177484900755381</v>
+        <v>28.91254291046053</v>
       </c>
       <c r="D46" s="3">
-        <v>74.983359991370008</v>
+        <v>14.948959102598501</v>
       </c>
       <c r="E46" s="3">
-        <v>24.529964473754269</v>
+        <v>4.8710865557423153</v>
       </c>
       <c r="F46" s="3">
-        <v>27.498231608916381</v>
+        <v>6.9550567429093739</v>
       </c>
       <c r="G46">
-        <v>191.9706406132361</v>
+        <v>70.234704941932677</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2226,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2240,22 +2246,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="3">
-        <v>1430.3602877260801</v>
+        <v>24.47989649170648</v>
       </c>
       <c r="C47" s="3">
-        <v>91.86022491947557</v>
+        <v>11.589275286982449</v>
       </c>
       <c r="D47" s="3">
-        <v>10.62158358504429</v>
+        <v>15.119691098539191</v>
       </c>
       <c r="E47" s="3">
-        <v>4.1474675517587283</v>
+        <v>4.9349703947816392</v>
       </c>
       <c r="F47" s="3">
-        <v>2.1773851104798569</v>
+        <v>3.598175617086333</v>
       </c>
       <c r="G47">
-        <v>1539.166948892838</v>
+        <v>59.722008889096067</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2264,36 +2270,36 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="3">
-        <v>10.560220400950501</v>
-      </c>
-      <c r="C48" s="3">
-        <v>34.163598838687278</v>
-      </c>
-      <c r="D48" s="3">
-        <v>4.3454725743379914</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2.520813344389278</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2.3642046794628131</v>
+      <c r="B48" s="4">
+        <v>19.825825226568089</v>
+      </c>
+      <c r="C48" s="4">
+        <v>15.36112298964842</v>
+      </c>
+      <c r="D48" s="4">
+        <v>12.44984817430038</v>
+      </c>
+      <c r="E48" s="4">
+        <v>4.9471090434113876</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.2847214399438309</v>
       </c>
       <c r="G48">
-        <v>53.954309837827857</v>
+        <v>54.86862687387211</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2304,11 +2310,11 @@
       <c r="J48">
         <v>14</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="4">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2316,22 +2322,22 @@
         <v>11</v>
       </c>
       <c r="B49" s="3">
-        <v>34.944927174596181</v>
+        <v>23.141679021931662</v>
       </c>
       <c r="C49" s="3">
-        <v>10.1786298375561</v>
+        <v>8.1875352222988127</v>
       </c>
       <c r="D49" s="3">
-        <v>4.2070670582499368</v>
+        <v>4.0056867957003748</v>
       </c>
       <c r="E49" s="3">
-        <v>4.0029131533094624</v>
+        <v>4.9503937098207036</v>
       </c>
       <c r="F49" s="3">
-        <v>2.7321521240141289</v>
+        <v>3.6266057798498741</v>
       </c>
       <c r="G49">
-        <v>56.065689347725808</v>
+        <v>43.911900529601418</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2340,36 +2346,36 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="3">
-        <v>13.38231794958206</v>
-      </c>
-      <c r="C50" s="3">
-        <v>16.64554476062294</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2.7370109295171261</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2.8073593293665269</v>
-      </c>
-      <c r="F50" s="3">
-        <v>3.571682417735345</v>
+      <c r="B50" s="4">
+        <v>14.91821877869565</v>
+      </c>
+      <c r="C50" s="4">
+        <v>16.643224087073371</v>
+      </c>
+      <c r="D50" s="4">
+        <v>16.548412014237069</v>
+      </c>
+      <c r="E50" s="4">
+        <v>4.9607210903641921</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1.732729791372156</v>
       </c>
       <c r="G50">
-        <v>39.143915386824013</v>
+        <v>54.803305761742443</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -2378,13 +2384,13 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>7</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2392,22 +2398,22 @@
         <v>11</v>
       </c>
       <c r="B51" s="3">
-        <v>18.637208529696981</v>
+        <v>7.1977102863614766</v>
       </c>
       <c r="C51" s="3">
-        <v>44.692308657422807</v>
+        <v>34.580845112955039</v>
       </c>
       <c r="D51" s="3">
-        <v>3.2537636885285082</v>
+        <v>6.7163185561216601</v>
       </c>
       <c r="E51" s="3">
-        <v>2.8822774492133809</v>
+        <v>4.9911376544302746</v>
       </c>
       <c r="F51" s="3">
-        <v>3.6067243539544291</v>
+        <v>6.0625159158979489</v>
       </c>
       <c r="G51">
-        <v>73.072282678816123</v>
+        <v>59.548527525766403</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -2416,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2430,22 +2436,22 @@
         <v>11</v>
       </c>
       <c r="B52" s="3">
-        <v>17.798554303205389</v>
+        <v>7.8051694977078414</v>
       </c>
       <c r="C52" s="3">
-        <v>62.434066566829792</v>
+        <v>58.12085753439635</v>
       </c>
       <c r="D52" s="3">
-        <v>12.58775981937834</v>
+        <v>24.257973776274302</v>
       </c>
       <c r="E52" s="3">
-        <v>4.1202153391547798</v>
+        <v>4.9938939836305671</v>
       </c>
       <c r="F52" s="3">
-        <v>5.3621852322222141</v>
+        <v>7.0889539987748531</v>
       </c>
       <c r="G52">
-        <v>102.3027812607905</v>
+        <v>102.2668487907839</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -2454,36 +2460,36 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="3">
-        <v>17.798554303205389</v>
-      </c>
-      <c r="C53" s="3">
-        <v>62.434066566829792</v>
-      </c>
-      <c r="D53" s="3">
-        <v>12.58775981937834</v>
-      </c>
-      <c r="E53" s="3">
-        <v>4.1202153391547798</v>
-      </c>
-      <c r="F53" s="3">
-        <v>5.3621852322222141</v>
+      <c r="B53" s="4">
+        <v>25.036287016581781</v>
+      </c>
+      <c r="C53" s="4">
+        <v>47.824310078296442</v>
+      </c>
+      <c r="D53" s="4">
+        <v>23.823100816455408</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5.1077140989563148</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3.2871625089624952</v>
       </c>
       <c r="G53">
-        <v>102.3027812607905</v>
+        <v>105.0785745192524</v>
       </c>
       <c r="H53">
         <v>0.25</v>
@@ -2492,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2506,22 +2512,22 @@
         <v>11</v>
       </c>
       <c r="B54" s="3">
-        <v>17.798554303205389</v>
+        <v>10.310180512744759</v>
       </c>
       <c r="C54" s="3">
-        <v>62.434066566829792</v>
+        <v>36.599694224931199</v>
       </c>
       <c r="D54" s="3">
-        <v>12.58775981937834</v>
+        <v>37.932483047977158</v>
       </c>
       <c r="E54" s="3">
-        <v>4.1202153391547798</v>
+        <v>5.1560811494185668</v>
       </c>
       <c r="F54" s="3">
-        <v>5.3621852322222141</v>
+        <v>3.7896765486777788</v>
       </c>
       <c r="G54">
-        <v>102.3027812607905</v>
+        <v>93.788115483749451</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -2530,36 +2536,36 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="3">
-        <v>17.798554303205389</v>
-      </c>
-      <c r="C55" s="3">
-        <v>62.434066566829792</v>
-      </c>
-      <c r="D55" s="3">
-        <v>12.58775981937834</v>
-      </c>
-      <c r="E55" s="3">
-        <v>4.1202153391547798</v>
-      </c>
-      <c r="F55" s="3">
-        <v>5.3621852322222141</v>
+      <c r="B55" s="4">
+        <v>89.404935171893783</v>
+      </c>
+      <c r="C55" s="4">
+        <v>20.883798608676859</v>
+      </c>
+      <c r="D55" s="4">
+        <v>7.4974753732051704</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5.296322397355274</v>
+      </c>
+      <c r="F55" s="4">
+        <v>5.2712080050949472</v>
       </c>
       <c r="G55">
-        <v>102.3027812607905</v>
+        <v>128.35373955622609</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -2568,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>4</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1</v>
       </c>
       <c r="L55" t="s">
         <v>14</v>
@@ -2582,22 +2588,22 @@
         <v>11</v>
       </c>
       <c r="B56" s="3">
-        <v>17.798554303205389</v>
+        <v>29.184293086415199</v>
       </c>
       <c r="C56" s="3">
-        <v>62.434066566829792</v>
+        <v>10.589589279037231</v>
       </c>
       <c r="D56" s="3">
-        <v>12.58775981937834</v>
+        <v>27.348422553377169</v>
       </c>
       <c r="E56" s="3">
-        <v>4.1202153391547798</v>
+        <v>5.4886159157170207</v>
       </c>
       <c r="F56" s="3">
-        <v>5.3621852322222141</v>
+        <v>3.1818393381412879</v>
       </c>
       <c r="G56">
-        <v>102.3027812607905</v>
+        <v>75.792760172687906</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -2606,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2620,22 +2626,22 @@
         <v>11</v>
       </c>
       <c r="B57" s="3">
-        <v>17.798554303205389</v>
+        <v>18.873843686500209</v>
       </c>
       <c r="C57" s="3">
-        <v>62.434066566829792</v>
+        <v>25.97659929878866</v>
       </c>
       <c r="D57" s="3">
-        <v>12.58775981937834</v>
+        <v>4.9524966880317018</v>
       </c>
       <c r="E57" s="3">
-        <v>4.1202153391547798</v>
+        <v>5.5058429747383189</v>
       </c>
       <c r="F57" s="3">
-        <v>5.3621852322222141</v>
+        <v>10.603611451405531</v>
       </c>
       <c r="G57">
-        <v>102.3027812607905</v>
+        <v>65.912394099464407</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -2644,13 +2650,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2658,22 +2664,22 @@
         <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>17.798554303205389</v>
+        <v>25.336431418748489</v>
       </c>
       <c r="C58" s="3">
-        <v>62.434066566829792</v>
+        <v>12.555217059775689</v>
       </c>
       <c r="D58" s="3">
-        <v>12.58775981937834</v>
+        <v>44.968550806068613</v>
       </c>
       <c r="E58" s="3">
-        <v>4.1202153391547798</v>
+        <v>5.5160504389306668</v>
       </c>
       <c r="F58" s="3">
-        <v>5.3621852322222141</v>
+        <v>3.6438336735119661</v>
       </c>
       <c r="G58">
-        <v>102.3027812607905</v>
+        <v>92.020083397035421</v>
       </c>
       <c r="H58">
         <v>0.25</v>
@@ -2682,36 +2688,36 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="3">
-        <v>17.798554303205389</v>
-      </c>
-      <c r="C59" s="3">
-        <v>62.434066566829792</v>
-      </c>
-      <c r="D59" s="3">
-        <v>12.58775981937834</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4.1202153391547798</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5.3621852322222141</v>
+      <c r="B59" s="4">
+        <v>463.6447051571613</v>
+      </c>
+      <c r="C59" s="4">
+        <v>42.894653681942472</v>
+      </c>
+      <c r="D59" s="4">
+        <v>11.26009701443539</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5.5748863953235688</v>
+      </c>
+      <c r="F59" s="4">
+        <v>3.8384149020748088</v>
       </c>
       <c r="G59">
-        <v>102.3027812607905</v>
+        <v>527.21275715093748</v>
       </c>
       <c r="H59">
         <v>0.25</v>
@@ -2720,36 +2726,36 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>17</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="3">
-        <v>17.798554303205389</v>
-      </c>
-      <c r="C60" s="3">
-        <v>62.434066566829792</v>
-      </c>
-      <c r="D60" s="3">
-        <v>12.58775981937834</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4.1202153391547798</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5.3621852322222141</v>
+      <c r="B60" s="4">
+        <v>45.003977548328159</v>
+      </c>
+      <c r="C60" s="4">
+        <v>19.818217591798479</v>
+      </c>
+      <c r="D60" s="4">
+        <v>5.5019451864670126</v>
+      </c>
+      <c r="E60" s="4">
+        <v>5.5770053457044506</v>
+      </c>
+      <c r="F60" s="4">
+        <v>5.7485683689843352</v>
       </c>
       <c r="G60">
-        <v>102.3027812607905</v>
+        <v>81.649714041282436</v>
       </c>
       <c r="H60">
         <v>0.25</v>
@@ -2758,36 +2764,36 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>22</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="3">
-        <v>38.848755873064889</v>
-      </c>
-      <c r="C61" s="3">
-        <v>53.874551705035898</v>
-      </c>
-      <c r="D61" s="3">
-        <v>6.4856480101102942</v>
-      </c>
-      <c r="E61" s="3">
-        <v>8.1497381567763032</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5.9574505178538004</v>
+      <c r="B61" s="4">
+        <v>17.37310266626568</v>
+      </c>
+      <c r="C61" s="4">
+        <v>6.2388987874132464</v>
+      </c>
+      <c r="D61" s="4">
+        <v>14.33456871089162</v>
+      </c>
+      <c r="E61" s="4">
+        <v>5.5875090402067418</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2.2858160865329711</v>
       </c>
       <c r="G61">
-        <v>113.31614426284121</v>
+        <v>45.819895291310253</v>
       </c>
       <c r="H61">
         <v>0.25</v>
@@ -2798,11 +2804,11 @@
       <c r="J61">
         <v>11</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
+      <c r="K61" s="4">
+        <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2810,22 +2816,22 @@
         <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>31.61530110705753</v>
+        <v>10.064265560221729</v>
       </c>
       <c r="C62" s="3">
-        <v>122.54762691413239</v>
+        <v>8.779013107464543</v>
       </c>
       <c r="D62" s="3">
-        <v>11.453311051710619</v>
+        <v>10.39433722648797</v>
       </c>
       <c r="E62" s="3">
-        <v>9.1335847404779908</v>
+        <v>5.6069388745088036</v>
       </c>
       <c r="F62" s="3">
-        <v>6.2021944658223003</v>
+        <v>3.6913873825580619</v>
       </c>
       <c r="G62">
-        <v>180.95201827920079</v>
+        <v>38.535942151241109</v>
       </c>
       <c r="H62">
         <v>0.25</v>
@@ -2834,36 +2840,36 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="3">
-        <v>34.673504933696478</v>
-      </c>
-      <c r="C63" s="3">
-        <v>18.689987167639021</v>
-      </c>
-      <c r="D63" s="3">
-        <v>20.224231292070609</v>
-      </c>
-      <c r="E63" s="3">
-        <v>6.4020640700288611</v>
-      </c>
-      <c r="F63" s="3">
-        <v>6.5038148427410372</v>
+      <c r="B63" s="4">
+        <v>35.06153391525033</v>
+      </c>
+      <c r="C63" s="4">
+        <v>12.2203299094082</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3.8195366885511701</v>
+      </c>
+      <c r="E63" s="4">
+        <v>5.8402983581542554</v>
+      </c>
+      <c r="F63" s="4">
+        <v>5.2861774959392216</v>
       </c>
       <c r="G63">
-        <v>86.493602306176015</v>
+        <v>62.227876367303168</v>
       </c>
       <c r="H63">
         <v>0.25</v>
@@ -2872,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>18</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
       </c>
       <c r="L63" t="s">
         <v>14</v>
@@ -2886,22 +2892,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="3">
-        <v>14.547059630221939</v>
+        <v>7.0514263169562739</v>
       </c>
       <c r="C64" s="3">
-        <v>28.91254291046053</v>
+        <v>46.851385682101927</v>
       </c>
       <c r="D64" s="3">
-        <v>14.948959102598501</v>
+        <v>24.280159212776908</v>
       </c>
       <c r="E64" s="3">
-        <v>4.8710865557423153</v>
+        <v>5.84643885854336</v>
       </c>
       <c r="F64" s="3">
-        <v>6.9550567429093739</v>
+        <v>4.6588837838111088</v>
       </c>
       <c r="G64">
-        <v>70.234704941932677</v>
+        <v>88.688293854189624</v>
       </c>
       <c r="H64">
         <v>0.25</v>
@@ -2910,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2924,22 +2930,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="3">
-        <v>31.83426652133004</v>
+        <v>51.256522624524457</v>
       </c>
       <c r="C65" s="3">
-        <v>31.83749301353302</v>
+        <v>13.62492494276613</v>
       </c>
       <c r="D65" s="3">
-        <v>19.982059509797821</v>
+        <v>19.922299048318699</v>
       </c>
       <c r="E65" s="3">
-        <v>14.587020413295971</v>
+        <v>5.8774326138928927</v>
       </c>
       <c r="F65" s="3">
-        <v>19.338305882454652</v>
+        <v>3.9386091163818731</v>
       </c>
       <c r="G65">
-        <v>117.5791453404115</v>
+        <v>94.619788345884047</v>
       </c>
       <c r="H65">
         <v>0.25</v>
@@ -2948,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2962,22 +2968,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="3">
-        <v>1785.1629199406241</v>
+        <v>21.191950775630641</v>
       </c>
       <c r="C66" s="3">
-        <v>261.8097303137443</v>
+        <v>8.2657489254211391</v>
       </c>
       <c r="D66" s="3">
-        <v>41.962544585891862</v>
+        <v>12.931701365790961</v>
       </c>
       <c r="E66" s="3">
-        <v>10.33254247320099</v>
+        <v>5.9632126271960262</v>
       </c>
       <c r="F66" s="3">
-        <v>35.022649217433923</v>
+        <v>5.1960202645472169</v>
       </c>
       <c r="G66">
-        <v>2134.2903865308949</v>
+        <v>53.548633958585981</v>
       </c>
       <c r="H66">
         <v>0.25</v>
@@ -2986,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3000,22 +3006,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="3">
-        <v>1023.564935792255</v>
+        <v>108.3638597574913</v>
       </c>
       <c r="C67" s="3">
-        <v>176.36715818271571</v>
+        <v>29.826625728301408</v>
       </c>
       <c r="D67" s="3">
-        <v>133.04864822838769</v>
+        <v>18.805779583848409</v>
       </c>
       <c r="E67" s="3">
-        <v>139.9290483393635</v>
+        <v>6.0783923207862287</v>
       </c>
       <c r="F67" s="3">
-        <v>51.192314513606171</v>
+        <v>2.570073959100148</v>
       </c>
       <c r="G67">
-        <v>1524.1021050563279</v>
+        <v>165.6447313495274</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3024,36 +3030,36 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="3">
-        <v>25.642612685185529</v>
-      </c>
-      <c r="C68" s="3">
-        <v>52.667625059451652</v>
-      </c>
-      <c r="D68" s="3">
-        <v>26.65598727327157</v>
-      </c>
-      <c r="E68" s="3">
-        <v>35.677363001828567</v>
-      </c>
-      <c r="F68" s="3">
-        <v>61.227644535106649</v>
+      <c r="B68" s="4">
+        <v>20.732283900144079</v>
+      </c>
+      <c r="C68" s="4">
+        <v>30.93123892916751</v>
+      </c>
+      <c r="D68" s="4">
+        <v>12.61129604720696</v>
+      </c>
+      <c r="E68" s="4">
+        <v>6.1737607016627649</v>
+      </c>
+      <c r="F68" s="4">
+        <v>5.6702361093773694</v>
       </c>
       <c r="G68">
-        <v>201.87123255484391</v>
+        <v>76.11881568755868</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -3062,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>23</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1</v>
       </c>
       <c r="L68" t="s">
         <v>14</v>
@@ -3076,22 +3082,22 @@
         <v>11</v>
       </c>
       <c r="B69" s="4">
-        <v>14.91821877869565</v>
+        <v>24.863716038887901</v>
       </c>
       <c r="C69" s="4">
-        <v>16.643224087073371</v>
+        <v>7.1511184295538657</v>
       </c>
       <c r="D69" s="4">
-        <v>16.548412014237069</v>
+        <v>4.5305417870974241</v>
       </c>
       <c r="E69" s="4">
-        <v>4.9607210903641921</v>
+        <v>6.3380666949489148</v>
       </c>
       <c r="F69" s="4">
-        <v>1.732729791372156</v>
+        <v>5.5854291925388946</v>
       </c>
       <c r="G69">
-        <v>54.803305761742443</v>
+        <v>48.468872143026999</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3100,36 +3106,36 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K69" s="4">
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="4">
-        <v>17.37310266626568</v>
-      </c>
-      <c r="C70" s="4">
-        <v>6.2388987874132464</v>
-      </c>
-      <c r="D70" s="4">
-        <v>14.33456871089162</v>
-      </c>
-      <c r="E70" s="4">
-        <v>5.5875090402067418</v>
-      </c>
-      <c r="F70" s="4">
-        <v>2.2858160865329711</v>
+      <c r="B70" s="3">
+        <v>19.705767695895489</v>
+      </c>
+      <c r="C70" s="3">
+        <v>124.67876362688691</v>
+      </c>
+      <c r="D70" s="3">
+        <v>9.8450252819330206</v>
+      </c>
+      <c r="E70" s="3">
+        <v>6.3922674996278008</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3.102530976354787</v>
       </c>
       <c r="G70">
-        <v>45.819895291310253</v>
+        <v>163.72435508069799</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -3138,36 +3144,36 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>11</v>
-      </c>
-      <c r="K70" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="4">
-        <v>25.036287016581781</v>
-      </c>
-      <c r="C71" s="4">
-        <v>47.824310078296442</v>
-      </c>
-      <c r="D71" s="4">
-        <v>23.823100816455408</v>
-      </c>
-      <c r="E71" s="4">
-        <v>5.1077140989563148</v>
-      </c>
-      <c r="F71" s="4">
-        <v>3.2871625089624952</v>
+      <c r="B71" s="3">
+        <v>34.673504933696478</v>
+      </c>
+      <c r="C71" s="3">
+        <v>18.689987167639021</v>
+      </c>
+      <c r="D71" s="3">
+        <v>20.224231292070609</v>
+      </c>
+      <c r="E71" s="3">
+        <v>6.4020640700288611</v>
+      </c>
+      <c r="F71" s="3">
+        <v>6.5038148427410372</v>
       </c>
       <c r="G71">
-        <v>105.0785745192524</v>
+        <v>86.493602306176015</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -3176,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>22</v>
-      </c>
-      <c r="K71" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3190,22 +3196,22 @@
         <v>11</v>
       </c>
       <c r="B72" s="4">
-        <v>16.17822732026282</v>
+        <v>11.516030051242829</v>
       </c>
       <c r="C72" s="4">
-        <v>6.9294785664362646</v>
+        <v>11.663300467711551</v>
       </c>
       <c r="D72" s="4">
-        <v>3.0069069177373691</v>
+        <v>20.79982160263733</v>
       </c>
       <c r="E72" s="4">
-        <v>9.1625475075827438</v>
+        <v>6.55347601984385</v>
       </c>
       <c r="F72" s="4">
-        <v>4.7219991843108424</v>
+        <v>4.8219598138408779</v>
       </c>
       <c r="G72">
-        <v>39.999159496330037</v>
+        <v>55.354587955276443</v>
       </c>
       <c r="H72">
         <v>0.25</v>
@@ -3214,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K72" s="4">
         <v>1</v>
@@ -3227,23 +3233,23 @@
       <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="4">
-        <v>11.516030051242829</v>
-      </c>
-      <c r="C73" s="4">
-        <v>11.663300467711551</v>
-      </c>
-      <c r="D73" s="4">
-        <v>20.79982160263733</v>
-      </c>
-      <c r="E73" s="4">
-        <v>6.55347601984385</v>
-      </c>
-      <c r="F73" s="4">
-        <v>4.8219598138408779</v>
+      <c r="B73" s="3">
+        <v>43.22523710305228</v>
+      </c>
+      <c r="C73" s="3">
+        <v>12.729483907845911</v>
+      </c>
+      <c r="D73" s="3">
+        <v>30.904966157839841</v>
+      </c>
+      <c r="E73" s="3">
+        <v>6.6305893455602112</v>
+      </c>
+      <c r="F73" s="3">
+        <v>3.7306507073332669</v>
       </c>
       <c r="G73">
-        <v>55.354587955276443</v>
+        <v>97.220927221631499</v>
       </c>
       <c r="H73">
         <v>0.25</v>
@@ -3252,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>9</v>
-      </c>
-      <c r="K73" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
       </c>
       <c r="L73" t="s">
         <v>12</v>
@@ -3266,22 +3272,22 @@
         <v>11</v>
       </c>
       <c r="B74" s="4">
-        <v>12.34393944677436</v>
+        <v>53.967530449314587</v>
       </c>
       <c r="C74" s="4">
-        <v>7.5500444119596013</v>
+        <v>21.066605325741129</v>
       </c>
       <c r="D74" s="4">
-        <v>34.666595605376287</v>
+        <v>6.7582631037269163</v>
       </c>
       <c r="E74" s="4">
-        <v>12.665312484862479</v>
+        <v>6.6796427354638457</v>
       </c>
       <c r="F74" s="4">
-        <v>4.9002578895987341</v>
+        <v>4.5603838356990254</v>
       </c>
       <c r="G74">
-        <v>72.12614983857145</v>
+        <v>93.032425449945492</v>
       </c>
       <c r="H74">
         <v>0.25</v>
@@ -3290,13 +3296,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K74" s="4">
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3341,23 +3347,23 @@
       <c r="A76" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="4">
-        <v>23.20172496519066</v>
-      </c>
-      <c r="C76" s="4">
-        <v>27.913110601005091</v>
-      </c>
-      <c r="D76" s="4">
-        <v>174.58841145657229</v>
-      </c>
-      <c r="E76" s="4">
-        <v>17.793194136932129</v>
-      </c>
-      <c r="F76" s="4">
-        <v>5.0566030813907581</v>
+      <c r="B76" s="3">
+        <v>27.726273498517561</v>
+      </c>
+      <c r="C76" s="3">
+        <v>24.913500095563919</v>
+      </c>
+      <c r="D76" s="3">
+        <v>32.143924113626127</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6.8684726087814703</v>
+      </c>
+      <c r="F76" s="3">
+        <v>5.4944672132507346</v>
       </c>
       <c r="G76">
-        <v>248.5530442410909</v>
+        <v>97.146637529739849</v>
       </c>
       <c r="H76">
         <v>0.25</v>
@@ -3366,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>23</v>
-      </c>
-      <c r="K76" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" t="s">
         <v>12</v>
@@ -3379,23 +3385,23 @@
       <c r="A77" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="4">
-        <v>158.0605597248852</v>
-      </c>
-      <c r="C77" s="4">
-        <v>36.076217895742467</v>
-      </c>
-      <c r="D77" s="4">
-        <v>14.30464462059672</v>
-      </c>
-      <c r="E77" s="4">
-        <v>10.57529111145476</v>
-      </c>
-      <c r="F77" s="4">
-        <v>5.4726364442797406</v>
+      <c r="B77" s="3">
+        <v>28.628636847877999</v>
+      </c>
+      <c r="C77" s="3">
+        <v>17.04897434165402</v>
+      </c>
+      <c r="D77" s="3">
+        <v>63.381237676442581</v>
+      </c>
+      <c r="E77" s="3">
+        <v>6.8685874928584392</v>
+      </c>
+      <c r="F77" s="3">
+        <v>3.8035880926430452</v>
       </c>
       <c r="G77">
-        <v>224.48934979695889</v>
+        <v>119.7310244514761</v>
       </c>
       <c r="H77">
         <v>0.25</v>
@@ -3404,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>21</v>
-      </c>
-      <c r="K77" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
       </c>
       <c r="L77" t="s">
         <v>12</v>
@@ -3417,23 +3423,23 @@
       <c r="A78" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="4">
-        <v>7.6314436003782653</v>
-      </c>
-      <c r="C78" s="4">
-        <v>4.632249846805558</v>
-      </c>
-      <c r="D78" s="4">
-        <v>16.544019426825319</v>
-      </c>
-      <c r="E78" s="4">
-        <v>14.20776292048598</v>
-      </c>
-      <c r="F78" s="4">
-        <v>5.6048066921078892</v>
+      <c r="B78" s="3">
+        <v>73.124246450774351</v>
+      </c>
+      <c r="C78" s="3">
+        <v>38.290535261504523</v>
+      </c>
+      <c r="D78" s="3">
+        <v>7.7907169357927382</v>
+      </c>
+      <c r="E78" s="3">
+        <v>7.3824054523052967</v>
+      </c>
+      <c r="F78" s="3">
+        <v>4.6964903130193738</v>
       </c>
       <c r="G78">
-        <v>48.62028248660301</v>
+        <v>131.28439441339631</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -3442,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>19</v>
-      </c>
-      <c r="K78" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
       </c>
       <c r="L78" t="s">
         <v>12</v>
@@ -3456,22 +3462,22 @@
         <v>11</v>
       </c>
       <c r="B79" s="4">
-        <v>377.81851327169488</v>
+        <v>16.717529527682821</v>
       </c>
       <c r="C79" s="4">
-        <v>95.776071737720216</v>
+        <v>8.1709756681275376</v>
       </c>
       <c r="D79" s="4">
-        <v>30.624141396300189</v>
+        <v>8.5727810700179425</v>
       </c>
       <c r="E79" s="4">
-        <v>14.12258003781246</v>
+        <v>7.6241972538560479</v>
       </c>
       <c r="F79" s="4">
-        <v>6.0316520878211586</v>
+        <v>7.8628194299895888</v>
       </c>
       <c r="G79">
-        <v>524.37295853134879</v>
+        <v>48.948302949673952</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -3480,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K79" s="4">
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3494,22 +3500,22 @@
         <v>11</v>
       </c>
       <c r="B80" s="4">
-        <v>39.278976101752349</v>
+        <v>16.23851386986366</v>
       </c>
       <c r="C80" s="4">
-        <v>6.3772272915049726</v>
+        <v>10.557598727034019</v>
       </c>
       <c r="D80" s="4">
-        <v>9.0834895104013231</v>
+        <v>5.8790701919922634</v>
       </c>
       <c r="E80" s="4">
-        <v>7.8415303612290064</v>
+        <v>7.7086934326609491</v>
       </c>
       <c r="F80" s="4">
-        <v>6.0991686920732082</v>
+        <v>8.3357305681055056</v>
       </c>
       <c r="G80">
-        <v>68.680391956960875</v>
+        <v>48.71960678965641</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -3518,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K80" s="4">
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3532,22 +3538,22 @@
         <v>11</v>
       </c>
       <c r="B81" s="4">
-        <v>10.732215694884699</v>
+        <v>39.278976101752349</v>
       </c>
       <c r="C81" s="4">
-        <v>6.706940831041738</v>
+        <v>6.3772272915049726</v>
       </c>
       <c r="D81" s="4">
-        <v>10.62648610498467</v>
+        <v>9.0834895104013231</v>
       </c>
       <c r="E81" s="4">
-        <v>7.9852718869337593</v>
+        <v>7.8415303612290064</v>
       </c>
       <c r="F81" s="4">
-        <v>6.2280223416982397</v>
+        <v>6.0991686920732082</v>
       </c>
       <c r="G81">
-        <v>42.278936859543109</v>
+        <v>68.680391956960875</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -3556,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K81" s="4">
         <v>1</v>
@@ -3570,22 +3576,22 @@
         <v>11</v>
       </c>
       <c r="B82" s="4">
-        <v>31.18481297074085</v>
+        <v>10.732215694884699</v>
       </c>
       <c r="C82" s="4">
-        <v>21.407551527387191</v>
+        <v>6.706940831041738</v>
       </c>
       <c r="D82" s="4">
-        <v>14.97229166697727</v>
+        <v>10.62648610498467</v>
       </c>
       <c r="E82" s="4">
-        <v>10.666364683750031</v>
+        <v>7.9852718869337593</v>
       </c>
       <c r="F82" s="4">
-        <v>6.4085042571147923</v>
+        <v>6.2280223416982397</v>
       </c>
       <c r="G82">
-        <v>84.639525105970137</v>
+        <v>42.278936859543109</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -3594,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K82" s="4">
         <v>1</v>
@@ -3607,23 +3613,23 @@
       <c r="A83" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="4">
-        <v>199.12311799769321</v>
-      </c>
-      <c r="C83" s="4">
-        <v>13.740039791010821</v>
-      </c>
-      <c r="D83" s="4">
-        <v>53.469975516234022</v>
-      </c>
-      <c r="E83" s="4">
-        <v>23.552890514878229</v>
-      </c>
-      <c r="F83" s="4">
-        <v>8.5471425266448406</v>
+      <c r="B83" s="3">
+        <v>38.848755873064889</v>
+      </c>
+      <c r="C83" s="3">
+        <v>53.874551705035898</v>
+      </c>
+      <c r="D83" s="3">
+        <v>6.4856480101102942</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8.1497381567763032</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5.9574505178538004</v>
       </c>
       <c r="G83">
-        <v>298.43316634646112</v>
+        <v>113.31614426284121</v>
       </c>
       <c r="H83">
         <v>0.25</v>
@@ -3632,36 +3638,36 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>25</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="4">
-        <v>15.88085813734012</v>
-      </c>
-      <c r="C84" s="4">
-        <v>7.0937337372517053</v>
-      </c>
-      <c r="D84" s="4">
-        <v>9.7018463241472741</v>
-      </c>
-      <c r="E84" s="4">
-        <v>15.369313734988101</v>
-      </c>
-      <c r="F84" s="4">
-        <v>10.11425097610315</v>
+      <c r="B84" s="3">
+        <v>24.899346050717391</v>
+      </c>
+      <c r="C84" s="3">
+        <v>14.92358381379402</v>
+      </c>
+      <c r="D84" s="3">
+        <v>68.73737358385236</v>
+      </c>
+      <c r="E84" s="3">
+        <v>8.2000881272309236</v>
+      </c>
+      <c r="F84" s="3">
+        <v>3.19796532068148</v>
       </c>
       <c r="G84">
-        <v>58.160002909830339</v>
+        <v>119.9583568962762</v>
       </c>
       <c r="H84">
         <v>0.25</v>
@@ -3670,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>28</v>
-      </c>
-      <c r="K84" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
       </c>
       <c r="L84" t="s">
         <v>12</v>
@@ -3684,22 +3690,22 @@
         <v>11</v>
       </c>
       <c r="B85" s="4">
-        <v>16.606068730422319</v>
+        <v>28.386321439380179</v>
       </c>
       <c r="C85" s="4">
-        <v>26.702918699133321</v>
+        <v>11.55540323828507</v>
       </c>
       <c r="D85" s="4">
-        <v>13.68645286928505</v>
+        <v>6.6475410105570516</v>
       </c>
       <c r="E85" s="4">
-        <v>12.39362615123051</v>
+        <v>8.3523138994634856</v>
       </c>
       <c r="F85" s="4">
-        <v>10.860712463750071</v>
+        <v>7.5173434184479824</v>
       </c>
       <c r="G85">
-        <v>80.24977891382126</v>
+        <v>62.458923006133787</v>
       </c>
       <c r="H85">
         <v>0.25</v>
@@ -3708,36 +3714,36 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K85" s="4">
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="4">
-        <v>15.551256995454869</v>
-      </c>
-      <c r="C86" s="4">
-        <v>9.8986532056123302</v>
-      </c>
-      <c r="D86" s="4">
-        <v>24.52175562335642</v>
-      </c>
-      <c r="E86" s="4">
-        <v>13.33299243796055</v>
-      </c>
-      <c r="F86" s="4">
-        <v>11.2607910826503</v>
+      <c r="B86" s="3">
+        <v>69.309906806042989</v>
+      </c>
+      <c r="C86" s="3">
+        <v>38.795935549424229</v>
+      </c>
+      <c r="D86" s="3">
+        <v>7.6486017286009016</v>
+      </c>
+      <c r="E86" s="3">
+        <v>8.4168608531243052</v>
+      </c>
+      <c r="F86" s="3">
+        <v>5.4007679411994278</v>
       </c>
       <c r="G86">
-        <v>74.565449345034466</v>
+        <v>129.57207287839191</v>
       </c>
       <c r="H86">
         <v>0.25</v>
@@ -3746,36 +3752,36 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>7</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="4">
-        <v>10.394931836917101</v>
-      </c>
-      <c r="C87" s="4">
-        <v>19.86191487877592</v>
-      </c>
-      <c r="D87" s="4">
-        <v>48.639561802601037</v>
-      </c>
-      <c r="E87" s="4">
-        <v>27.935608981494401</v>
-      </c>
-      <c r="F87" s="4">
-        <v>12.634497893132689</v>
+      <c r="B87" s="3">
+        <v>31.61530110705753</v>
+      </c>
+      <c r="C87" s="3">
+        <v>122.54762691413239</v>
+      </c>
+      <c r="D87" s="3">
+        <v>11.453311051710619</v>
+      </c>
+      <c r="E87" s="3">
+        <v>9.1335847404779908</v>
+      </c>
+      <c r="F87" s="3">
+        <v>6.2021944658223003</v>
       </c>
       <c r="G87">
-        <v>119.4665153929211</v>
+        <v>180.95201827920079</v>
       </c>
       <c r="H87">
         <v>0.25</v>
@@ -3784,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>15</v>
-      </c>
-      <c r="K87" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3798,22 +3804,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="4">
-        <v>1627.060796546037</v>
+        <v>16.17822732026282</v>
       </c>
       <c r="C88" s="4">
-        <v>281.7157635067947</v>
+        <v>6.9294785664362646</v>
       </c>
       <c r="D88" s="4">
-        <v>42.896651653880582</v>
+        <v>3.0069069177373691</v>
       </c>
       <c r="E88" s="4">
-        <v>22.831117448828198</v>
+        <v>9.1625475075827438</v>
       </c>
       <c r="F88" s="4">
-        <v>12.7724840880147</v>
+        <v>4.7219991843108424</v>
       </c>
       <c r="G88">
-        <v>1987.2768132435549</v>
+        <v>39.999159496330037</v>
       </c>
       <c r="H88">
         <v>0.25</v>
@@ -3822,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K88" s="4">
         <v>1</v>
@@ -3835,23 +3841,23 @@
       <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="4">
-        <v>412.60177031624158</v>
-      </c>
-      <c r="C89" s="4">
-        <v>88.088456215239844</v>
-      </c>
-      <c r="D89" s="4">
-        <v>53.397019187479273</v>
-      </c>
-      <c r="E89" s="4">
-        <v>20.426000321021071</v>
-      </c>
-      <c r="F89" s="4">
-        <v>15.06595568434297</v>
+      <c r="B89" s="3">
+        <v>23.10688110817572</v>
+      </c>
+      <c r="C89" s="3">
+        <v>8.4944794708548486</v>
+      </c>
+      <c r="D89" s="3">
+        <v>19.801173819486689</v>
+      </c>
+      <c r="E89" s="3">
+        <v>9.3374043313459545</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4.1206508815414029</v>
       </c>
       <c r="G89">
-        <v>589.57920172432478</v>
+        <v>64.860589611404635</v>
       </c>
       <c r="H89">
         <v>0.25</v>
@@ -3860,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>20</v>
-      </c>
-      <c r="K89" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" t="s">
         <v>12</v>
@@ -3874,22 +3880,22 @@
         <v>11</v>
       </c>
       <c r="B90" s="4">
-        <v>37.983567670392652</v>
+        <v>34.331569459515848</v>
       </c>
       <c r="C90" s="4">
-        <v>59.446696640866257</v>
+        <v>11.79287133845305</v>
       </c>
       <c r="D90" s="4">
-        <v>67.585315373969863</v>
+        <v>12.16369676330569</v>
       </c>
       <c r="E90" s="4">
-        <v>69.366770836105758</v>
+        <v>9.5582039302876787</v>
       </c>
       <c r="F90" s="4">
-        <v>41.056262861072327</v>
+        <v>8.2455240345742169</v>
       </c>
       <c r="G90">
-        <v>275.43861338240691</v>
+        <v>76.091865526136502</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -3898,36 +3904,36 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K90" s="4">
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="4">
-        <v>168.9889215248248</v>
-      </c>
-      <c r="C91" s="4">
-        <v>70.100459308810855</v>
-      </c>
-      <c r="D91" s="4">
-        <v>153.73618754268239</v>
-      </c>
-      <c r="E91" s="4">
-        <v>135.3414330216718</v>
-      </c>
-      <c r="F91" s="4">
-        <v>51.254628523242957</v>
+      <c r="B91" s="3">
+        <v>27.687871560461371</v>
+      </c>
+      <c r="C91" s="3">
+        <v>13.13736969334057</v>
+      </c>
+      <c r="D91" s="3">
+        <v>18.71094134291862</v>
+      </c>
+      <c r="E91" s="3">
+        <v>9.9089500028163648</v>
+      </c>
+      <c r="F91" s="3">
+        <v>14.361096780279331</v>
       </c>
       <c r="G91">
-        <v>579.42162992123292</v>
+        <v>83.806229379816244</v>
       </c>
       <c r="H91">
         <v>0.25</v>
@@ -3936,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="J91">
+        <v>20</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
         <v>13</v>
-      </c>
-      <c r="K91" s="4">
-        <v>1</v>
-      </c>
-      <c r="L91" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3950,22 +3956,22 @@
         <v>11</v>
       </c>
       <c r="B92" s="4">
-        <v>313.21407363881099</v>
+        <v>59.434642865538592</v>
       </c>
       <c r="C92" s="4">
-        <v>512.843961462283</v>
+        <v>12.66451504965114</v>
       </c>
       <c r="D92" s="4">
-        <v>555.697033534664</v>
+        <v>6.4267360157521596</v>
       </c>
       <c r="E92" s="4">
-        <v>668.76922594661391</v>
+        <v>10.25295448493314</v>
       </c>
       <c r="F92" s="4">
-        <v>368.69087071631031</v>
+        <v>10.95918276720972</v>
       </c>
       <c r="G92">
-        <v>2419.2151652986822</v>
+        <v>99.738031183084743</v>
       </c>
       <c r="H92">
         <v>0.25</v>
@@ -3974,36 +3980,36 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K92" s="4">
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="4">
-        <v>19.018982850080171</v>
-      </c>
-      <c r="C93" s="4">
-        <v>7.5812022620127753</v>
-      </c>
-      <c r="D93" s="4">
-        <v>3.5220180337780782</v>
-      </c>
-      <c r="E93" s="4">
-        <v>2.5614558045127751</v>
-      </c>
-      <c r="F93" s="4">
-        <v>2.7351820481322719</v>
+      <c r="B93" s="3">
+        <v>1785.1629199406241</v>
+      </c>
+      <c r="C93" s="3">
+        <v>261.8097303137443</v>
+      </c>
+      <c r="D93" s="3">
+        <v>41.962544585891862</v>
+      </c>
+      <c r="E93" s="3">
+        <v>10.33254247320099</v>
+      </c>
+      <c r="F93" s="3">
+        <v>35.022649217433923</v>
       </c>
       <c r="G93">
-        <v>35.418840998516067</v>
+        <v>2134.2903865308949</v>
       </c>
       <c r="H93">
         <v>0.25</v>
@@ -4012,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>10</v>
-      </c>
-      <c r="K93" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -4026,22 +4032,22 @@
         <v>11</v>
       </c>
       <c r="B94" s="4">
-        <v>18.962164245189228</v>
+        <v>158.0605597248852</v>
       </c>
       <c r="C94" s="4">
-        <v>11.911074695178</v>
+        <v>36.076217895742467</v>
       </c>
       <c r="D94" s="4">
-        <v>4.5577079908829177</v>
+        <v>14.30464462059672</v>
       </c>
       <c r="E94" s="4">
-        <v>2.6532378518685218</v>
+        <v>10.57529111145476</v>
       </c>
       <c r="F94" s="4">
-        <v>0.96052601331287735</v>
+        <v>5.4726364442797406</v>
       </c>
       <c r="G94">
-        <v>39.044710796431538</v>
+        <v>224.48934979695889</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -4050,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K94" s="4">
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -4064,22 +4070,22 @@
         <v>11</v>
       </c>
       <c r="B95" s="4">
-        <v>22.254654961336751</v>
+        <v>31.18481297074085</v>
       </c>
       <c r="C95" s="4">
-        <v>6.3002895199405033</v>
+        <v>21.407551527387191</v>
       </c>
       <c r="D95" s="4">
-        <v>3.697412806962149</v>
+        <v>14.97229166697727</v>
       </c>
       <c r="E95" s="4">
-        <v>2.884248425780672</v>
+        <v>10.666364683750031</v>
       </c>
       <c r="F95" s="4">
-        <v>2.3970346509773401</v>
+        <v>6.4085042571147923</v>
       </c>
       <c r="G95">
-        <v>37.53364036499741</v>
+        <v>84.639525105970137</v>
       </c>
       <c r="H95">
         <v>0.25</v>
@@ -4088,13 +4094,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K95" s="4">
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4102,22 +4108,22 @@
         <v>11</v>
       </c>
       <c r="B96" s="4">
-        <v>19.292843262790011</v>
+        <v>9845.1008094026984</v>
       </c>
       <c r="C96" s="4">
-        <v>7.6702578754812709</v>
+        <v>1000.830896013247</v>
       </c>
       <c r="D96" s="4">
-        <v>9.6870764887095202</v>
+        <v>72.705852191902864</v>
       </c>
       <c r="E96" s="4">
-        <v>3.3156003625267121</v>
+        <v>10.778618151879339</v>
       </c>
       <c r="F96" s="4">
-        <v>2.0233009520342562</v>
+        <v>4.969545239577581</v>
       </c>
       <c r="G96">
-        <v>41.989078941541777</v>
+        <v>10934.3857209993</v>
       </c>
       <c r="H96">
         <v>0.25</v>
@@ -4126,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K96" s="4">
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4140,22 +4146,22 @@
         <v>11</v>
       </c>
       <c r="B97" s="4">
-        <v>20.487165853958</v>
+        <v>45.725724450703908</v>
       </c>
       <c r="C97" s="4">
-        <v>30.973050620945749</v>
+        <v>16.206262344208071</v>
       </c>
       <c r="D97" s="4">
-        <v>12.375684238965141</v>
+        <v>14.28012592685115</v>
       </c>
       <c r="E97" s="4">
-        <v>4.5946679210512142</v>
+        <v>10.817759954136751</v>
       </c>
       <c r="F97" s="4">
-        <v>3.313456560705403</v>
+        <v>11.928884377247639</v>
       </c>
       <c r="G97">
-        <v>71.744025195625511</v>
+        <v>98.958757053147536</v>
       </c>
       <c r="H97">
         <v>0.25</v>
@@ -4164,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="K97" s="4">
         <v>1</v>
@@ -4178,22 +4184,22 @@
         <v>11</v>
       </c>
       <c r="B98" s="4">
-        <v>38.291707317272682</v>
+        <v>16.606068730422319</v>
       </c>
       <c r="C98" s="4">
-        <v>9.7938728906250532</v>
+        <v>26.702918699133321</v>
       </c>
       <c r="D98" s="4">
-        <v>2.8054057220158128</v>
+        <v>13.68645286928505</v>
       </c>
       <c r="E98" s="4">
-        <v>4.6033234381148063</v>
+        <v>12.39362615123051</v>
       </c>
       <c r="F98" s="4">
-        <v>4.2777187489982724</v>
+        <v>10.860712463750071</v>
       </c>
       <c r="G98">
-        <v>59.772028117026622</v>
+        <v>80.24977891382126</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4202,36 +4208,36 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K98" s="4">
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="4">
-        <v>19.825825226568089</v>
-      </c>
-      <c r="C99" s="4">
-        <v>15.36112298964842</v>
-      </c>
-      <c r="D99" s="4">
-        <v>12.44984817430038</v>
-      </c>
-      <c r="E99" s="4">
-        <v>4.9471090434113876</v>
-      </c>
-      <c r="F99" s="4">
-        <v>2.2847214399438309</v>
+      <c r="B99" s="3">
+        <v>37.685515302537063</v>
+      </c>
+      <c r="C99" s="3">
+        <v>23.878387790477952</v>
+      </c>
+      <c r="D99" s="3">
+        <v>17.325028436573401</v>
+      </c>
+      <c r="E99" s="3">
+        <v>12.48743369212723</v>
+      </c>
+      <c r="F99" s="3">
+        <v>6.8498216599242063</v>
       </c>
       <c r="G99">
-        <v>54.86862687387211</v>
+        <v>98.226186881639848</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -4240,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>14</v>
-      </c>
-      <c r="K99" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0</v>
       </c>
       <c r="L99" t="s">
         <v>13</v>
@@ -4254,22 +4260,22 @@
         <v>11</v>
       </c>
       <c r="B100" s="4">
-        <v>463.6447051571613</v>
+        <v>147.3766595958981</v>
       </c>
       <c r="C100" s="4">
-        <v>42.894653681942472</v>
+        <v>32.753974166642848</v>
       </c>
       <c r="D100" s="4">
-        <v>11.26009701443539</v>
+        <v>7.2478242535118813</v>
       </c>
       <c r="E100" s="4">
-        <v>5.5748863953235688</v>
+        <v>12.50332922309099</v>
       </c>
       <c r="F100" s="4">
-        <v>3.8384149020748088</v>
+        <v>11.65585630324493</v>
       </c>
       <c r="G100">
-        <v>527.21275715093748</v>
+        <v>211.53764354238879</v>
       </c>
       <c r="H100">
         <v>0.25</v>
@@ -4278,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K100" s="4">
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4292,22 +4298,22 @@
         <v>11</v>
       </c>
       <c r="B101" s="4">
-        <v>45.003977548328159</v>
+        <v>12.34393944677436</v>
       </c>
       <c r="C101" s="4">
-        <v>19.818217591798479</v>
+        <v>7.5500444119596013</v>
       </c>
       <c r="D101" s="4">
-        <v>5.5019451864670126</v>
+        <v>34.666595605376287</v>
       </c>
       <c r="E101" s="4">
-        <v>5.5770053457044506</v>
+        <v>12.665312484862479</v>
       </c>
       <c r="F101" s="4">
-        <v>5.7485683689843352</v>
+        <v>4.9002578895987341</v>
       </c>
       <c r="G101">
-        <v>81.649714041282436</v>
+        <v>72.12614983857145</v>
       </c>
       <c r="H101">
         <v>0.25</v>
@@ -4316,13 +4322,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K101" s="4">
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4330,22 +4336,22 @@
         <v>11</v>
       </c>
       <c r="B102" s="4">
-        <v>24.863716038887901</v>
+        <v>35.112717187465947</v>
       </c>
       <c r="C102" s="4">
-        <v>7.1511184295538657</v>
+        <v>20.079918608644459</v>
       </c>
       <c r="D102" s="4">
-        <v>4.5305417870974241</v>
+        <v>30.664132791526519</v>
       </c>
       <c r="E102" s="4">
-        <v>6.3380666949489148</v>
+        <v>13.259229965162911</v>
       </c>
       <c r="F102" s="4">
-        <v>5.5854291925388946</v>
+        <v>10.818301140291601</v>
       </c>
       <c r="G102">
-        <v>48.468872143026999</v>
+        <v>109.9342996930914</v>
       </c>
       <c r="H102">
         <v>0.25</v>
@@ -4354,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K102" s="4">
         <v>1</v>
@@ -4368,22 +4374,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>34.331569459515848</v>
+        <v>15.551256995454869</v>
       </c>
       <c r="C103" s="4">
-        <v>11.79287133845305</v>
+        <v>9.8986532056123302</v>
       </c>
       <c r="D103" s="4">
-        <v>12.16369676330569</v>
+        <v>24.52175562335642</v>
       </c>
       <c r="E103" s="4">
-        <v>9.5582039302876787</v>
+        <v>13.33299243796055</v>
       </c>
       <c r="F103" s="4">
-        <v>8.2455240345742169</v>
+        <v>11.2607910826503</v>
       </c>
       <c r="G103">
-        <v>76.091865526136502</v>
+        <v>74.565449345034466</v>
       </c>
       <c r="H103">
         <v>0.25</v>
@@ -4392,13 +4398,13 @@
         <v>0</v>
       </c>
       <c r="J103">
+        <v>7</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
         <v>12</v>
-      </c>
-      <c r="K103" s="4">
-        <v>1</v>
-      </c>
-      <c r="L103" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4406,22 +4412,22 @@
         <v>11</v>
       </c>
       <c r="B104" s="4">
-        <v>59.434642865538592</v>
+        <v>36.382152279478518</v>
       </c>
       <c r="C104" s="4">
-        <v>12.66451504965114</v>
+        <v>18.03997685151192</v>
       </c>
       <c r="D104" s="4">
-        <v>6.4267360157521596</v>
+        <v>22.660792073851059</v>
       </c>
       <c r="E104" s="4">
-        <v>10.25295448493314</v>
+        <v>13.46818433218205</v>
       </c>
       <c r="F104" s="4">
-        <v>10.95918276720972</v>
+        <v>11.23415847118874</v>
       </c>
       <c r="G104">
-        <v>99.738031183084743</v>
+        <v>101.78526400821229</v>
       </c>
       <c r="H104">
         <v>0.25</v>
@@ -4436,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4444,22 +4450,22 @@
         <v>11</v>
       </c>
       <c r="B105" s="4">
-        <v>45.725724450703908</v>
+        <v>27.378287969627291</v>
       </c>
       <c r="C105" s="4">
-        <v>16.206262344208071</v>
+        <v>17.047880871212449</v>
       </c>
       <c r="D105" s="4">
-        <v>14.28012592685115</v>
+        <v>50.068030572111098</v>
       </c>
       <c r="E105" s="4">
-        <v>10.817759954136751</v>
+        <v>13.489749499625219</v>
       </c>
       <c r="F105" s="4">
-        <v>11.928884377247639</v>
+        <v>4.799770421731556</v>
       </c>
       <c r="G105">
-        <v>98.958757053147536</v>
+        <v>112.78371933430761</v>
       </c>
       <c r="H105">
         <v>0.25</v>
@@ -4468,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K105" s="4">
         <v>1</v>
@@ -4482,22 +4488,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>35.112717187465947</v>
+        <v>13.59493743486844</v>
       </c>
       <c r="C106" s="4">
-        <v>20.079918608644459</v>
+        <v>7.6426091286642732</v>
       </c>
       <c r="D106" s="4">
-        <v>30.664132791526519</v>
+        <v>12.098830678448801</v>
       </c>
       <c r="E106" s="4">
-        <v>13.259229965162911</v>
+        <v>13.969633932474039</v>
       </c>
       <c r="F106" s="4">
-        <v>10.818301140291601</v>
+        <v>13.83960220471484</v>
       </c>
       <c r="G106">
-        <v>109.9342996930914</v>
+        <v>61.145613379170392</v>
       </c>
       <c r="H106">
         <v>0.25</v>
@@ -4506,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K106" s="4">
         <v>1</v>
@@ -4520,22 +4526,22 @@
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>27.378287969627291</v>
+        <v>377.81851327169488</v>
       </c>
       <c r="C107" s="4">
-        <v>17.047880871212449</v>
+        <v>95.776071737720216</v>
       </c>
       <c r="D107" s="4">
-        <v>50.068030572111098</v>
+        <v>30.624141396300189</v>
       </c>
       <c r="E107" s="4">
-        <v>13.489749499625219</v>
+        <v>14.12258003781246</v>
       </c>
       <c r="F107" s="4">
-        <v>4.799770421731556</v>
+        <v>6.0316520878211586</v>
       </c>
       <c r="G107">
-        <v>112.78371933430761</v>
+        <v>524.37295853134879</v>
       </c>
       <c r="H107">
         <v>0.25</v>
@@ -4544,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K107" s="4">
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4558,22 +4564,22 @@
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>13.59493743486844</v>
+        <v>7.6314436003782653</v>
       </c>
       <c r="C108" s="4">
-        <v>7.6426091286642732</v>
+        <v>4.632249846805558</v>
       </c>
       <c r="D108" s="4">
-        <v>12.098830678448801</v>
+        <v>16.544019426825319</v>
       </c>
       <c r="E108" s="4">
-        <v>13.969633932474039</v>
+        <v>14.20776292048598</v>
       </c>
       <c r="F108" s="4">
-        <v>13.83960220471484</v>
+        <v>5.6048066921078892</v>
       </c>
       <c r="G108">
-        <v>61.145613379170392</v>
+        <v>48.62028248660301</v>
       </c>
       <c r="H108">
         <v>0.25</v>
@@ -4582,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K108" s="4">
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4671,23 +4677,23 @@
       <c r="A111" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="4">
-        <v>35.571922965643708</v>
-      </c>
-      <c r="C111" s="4">
-        <v>18.094558126881001</v>
-      </c>
-      <c r="D111" s="4">
-        <v>9.9677661793742267</v>
-      </c>
-      <c r="E111" s="4">
-        <v>14.92799803472564</v>
-      </c>
-      <c r="F111" s="4">
-        <v>20.196389951378269</v>
+      <c r="B111" s="3">
+        <v>31.83426652133004</v>
+      </c>
+      <c r="C111" s="3">
+        <v>31.83749301353302</v>
+      </c>
+      <c r="D111" s="3">
+        <v>19.982059509797821</v>
+      </c>
+      <c r="E111" s="3">
+        <v>14.587020413295971</v>
+      </c>
+      <c r="F111" s="3">
+        <v>19.338305882454652</v>
       </c>
       <c r="G111">
-        <v>98.758635258002869</v>
+        <v>117.5791453404115</v>
       </c>
       <c r="H111">
         <v>0.25</v>
@@ -4696,13 +4702,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>4</v>
-      </c>
-      <c r="K111" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4710,22 +4716,22 @@
         <v>11</v>
       </c>
       <c r="B112" s="4">
-        <v>14.333227014278849</v>
+        <v>62.039182426180957</v>
       </c>
       <c r="C112" s="4">
-        <v>7.9453525553540274</v>
+        <v>19.667940116982749</v>
       </c>
       <c r="D112" s="4">
-        <v>9.2225649876126621</v>
+        <v>15.035601615444349</v>
       </c>
       <c r="E112" s="4">
-        <v>21.667776855487041</v>
+        <v>14.87348969370538</v>
       </c>
       <c r="F112" s="4">
-        <v>15.407185996126559</v>
+        <v>17.424722169198262</v>
       </c>
       <c r="G112">
-        <v>68.57610740885913</v>
+        <v>129.0409360215117</v>
       </c>
       <c r="H112">
         <v>0.25</v>
@@ -4734,13 +4740,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K112" s="4">
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -4748,22 +4754,22 @@
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>117.417894718772</v>
+        <v>35.571922965643708</v>
       </c>
       <c r="C113" s="4">
-        <v>51.36964605916112</v>
+        <v>18.094558126881001</v>
       </c>
       <c r="D113" s="4">
-        <v>22.443891273780299</v>
+        <v>9.9677661793742267</v>
       </c>
       <c r="E113" s="4">
-        <v>23.16280658534308</v>
+        <v>14.92799803472564</v>
       </c>
       <c r="F113" s="4">
-        <v>22.447236792300281</v>
+        <v>20.196389951378269</v>
       </c>
       <c r="G113">
-        <v>236.84147542935671</v>
+        <v>98.758635258002869</v>
       </c>
       <c r="H113">
         <v>0.25</v>
@@ -4772,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K113" s="4">
         <v>1</v>
@@ -4786,22 +4792,22 @@
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>50.851135145250097</v>
+        <v>15.88085813734012</v>
       </c>
       <c r="C114" s="4">
-        <v>15.517830075811441</v>
+        <v>7.0937337372517053</v>
       </c>
       <c r="D114" s="4">
-        <v>14.147051922118539</v>
+        <v>9.7018463241472741</v>
       </c>
       <c r="E114" s="4">
-        <v>23.24258746740945</v>
+        <v>15.369313734988101</v>
       </c>
       <c r="F114" s="4">
-        <v>9.6455851507750783</v>
+        <v>10.11425097610315</v>
       </c>
       <c r="G114">
-        <v>113.40418976136461</v>
+        <v>58.160002909830339</v>
       </c>
       <c r="H114">
         <v>0.25</v>
@@ -4810,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K114" s="4">
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4824,22 +4830,22 @@
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>62.172771234277413</v>
+        <v>26.481415580878529</v>
       </c>
       <c r="C115" s="4">
-        <v>49.107304690453198</v>
+        <v>9.9912097590094113</v>
       </c>
       <c r="D115" s="4">
-        <v>40.125189845637777</v>
+        <v>11.30678091404134</v>
       </c>
       <c r="E115" s="4">
-        <v>29.685802342485118</v>
+        <v>15.49355513694309</v>
       </c>
       <c r="F115" s="4">
-        <v>15.372714595848899</v>
+        <v>6.7021926160728222</v>
       </c>
       <c r="G115">
-        <v>196.46378270870241</v>
+        <v>69.975154006945175</v>
       </c>
       <c r="H115">
         <v>0.25</v>
@@ -4848,36 +4854,36 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K115" s="4">
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="4">
-        <v>242.11352472900751</v>
-      </c>
-      <c r="C116" s="4">
-        <v>126.1533955758955</v>
-      </c>
-      <c r="D116" s="4">
-        <v>86.079449539636613</v>
-      </c>
-      <c r="E116" s="4">
-        <v>32.899585529466577</v>
-      </c>
-      <c r="F116" s="4">
-        <v>13.0311915706643</v>
+      <c r="B116" s="3">
+        <v>36.39083870140901</v>
+      </c>
+      <c r="C116" s="3">
+        <v>24.07030763944142</v>
+      </c>
+      <c r="D116" s="3">
+        <v>86.945001524889577</v>
+      </c>
+      <c r="E116" s="3">
+        <v>16.41362994911151</v>
+      </c>
+      <c r="F116" s="3">
+        <v>7.7754699255019242</v>
       </c>
       <c r="G116">
-        <v>500.27714694467039</v>
+        <v>171.59524774035339</v>
       </c>
       <c r="H116">
         <v>0.25</v>
@@ -4886,36 +4892,36 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>15</v>
-      </c>
-      <c r="K116" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="4">
-        <v>111.6763005413401</v>
-      </c>
-      <c r="C117" s="4">
-        <v>69.412852783877639</v>
-      </c>
-      <c r="D117" s="4">
-        <v>67.216481979620866</v>
-      </c>
-      <c r="E117" s="4">
-        <v>88.241781580275884</v>
-      </c>
-      <c r="F117" s="4">
-        <v>51.727457800977596</v>
+      <c r="B117" s="3">
+        <v>1431.4113182237011</v>
+      </c>
+      <c r="C117" s="3">
+        <v>135.7392666544508</v>
+      </c>
+      <c r="D117" s="3">
+        <v>54.651339006886118</v>
+      </c>
+      <c r="E117" s="3">
+        <v>16.476162384679629</v>
+      </c>
+      <c r="F117" s="3">
+        <v>11.52300512198777</v>
       </c>
       <c r="G117">
-        <v>388.27487468609189</v>
+        <v>1649.8010913917051</v>
       </c>
       <c r="H117">
         <v>0.25</v>
@@ -4924,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>16</v>
-      </c>
-      <c r="K117" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -4938,22 +4944,22 @@
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>8784.98870156468</v>
+        <v>23.20172496519066</v>
       </c>
       <c r="C118" s="4">
-        <v>2818.268687411462</v>
+        <v>27.913110601005091</v>
       </c>
       <c r="D118" s="4">
-        <v>1203.0465472662811</v>
+        <v>174.58841145657229</v>
       </c>
       <c r="E118" s="4">
-        <v>1890.5609016794949</v>
+        <v>17.793194136932129</v>
       </c>
       <c r="F118" s="4">
-        <v>892.4171017069408</v>
+        <v>5.0566030813907581</v>
       </c>
       <c r="G118">
-        <v>15589.28193962886</v>
+        <v>248.5530442410909</v>
       </c>
       <c r="H118">
         <v>0.25</v>
@@ -4962,13 +4968,13 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K118" s="4">
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -4976,22 +4982,22 @@
         <v>11</v>
       </c>
       <c r="B119" s="4">
-        <v>55.489790777488643</v>
+        <v>292.54890479927059</v>
       </c>
       <c r="C119" s="4">
-        <v>16.728498690068129</v>
+        <v>103.70927480601</v>
       </c>
       <c r="D119" s="4">
-        <v>5.0641805843767624</v>
+        <v>20.497284572088549</v>
       </c>
       <c r="E119" s="4">
-        <v>3.8816091376464361</v>
+        <v>17.853182959421719</v>
       </c>
       <c r="F119" s="4">
-        <v>1.8180694170614959</v>
+        <v>28.7040630322795</v>
       </c>
       <c r="G119">
-        <v>82.982148606641474</v>
+        <v>463.31271016907027</v>
       </c>
       <c r="H119">
         <v>0.25</v>
@@ -5000,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K119" s="4">
         <v>1</v>
@@ -5014,22 +5020,22 @@
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>16.50146848544783</v>
+        <v>75.872437436443533</v>
       </c>
       <c r="C120" s="4">
-        <v>13.1768188898217</v>
+        <v>25.338921339397299</v>
       </c>
       <c r="D120" s="4">
-        <v>2.604673760370126</v>
+        <v>62.548023206335543</v>
       </c>
       <c r="E120" s="4">
-        <v>2.557495449760204</v>
+        <v>18.510127327135798</v>
       </c>
       <c r="F120" s="4">
-        <v>2.0794635607783492</v>
+        <v>6.791947406579415</v>
       </c>
       <c r="G120">
-        <v>36.919920146178207</v>
+        <v>189.06145671589161</v>
       </c>
       <c r="H120">
         <v>0.25</v>
@@ -5038,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K120" s="4">
         <v>1</v>
@@ -5052,22 +5058,22 @@
         <v>11</v>
       </c>
       <c r="B121" s="4">
-        <v>40.334039030001158</v>
+        <v>412.60177031624158</v>
       </c>
       <c r="C121" s="4">
-        <v>8.040774778641282</v>
+        <v>88.088456215239844</v>
       </c>
       <c r="D121" s="4">
-        <v>4.2879601201929072</v>
+        <v>53.397019187479273</v>
       </c>
       <c r="E121" s="4">
-        <v>3.8372746955692749</v>
+        <v>20.426000321021071</v>
       </c>
       <c r="F121" s="4">
-        <v>2.7208454864186429</v>
+        <v>15.06595568434297</v>
       </c>
       <c r="G121">
-        <v>59.220894110823281</v>
+        <v>589.57920172432478</v>
       </c>
       <c r="H121">
         <v>0.25</v>
@@ -5076,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="J121">
+        <v>20</v>
+      </c>
+      <c r="K121" s="4">
+        <v>1</v>
+      </c>
+      <c r="L121" t="s">
         <v>12</v>
-      </c>
-      <c r="K121" s="4">
-        <v>1</v>
-      </c>
-      <c r="L121" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5090,22 +5096,22 @@
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>22.719310616151819</v>
+        <v>14.333227014278849</v>
       </c>
       <c r="C122" s="4">
-        <v>13.67657700288007</v>
+        <v>7.9453525553540274</v>
       </c>
       <c r="D122" s="4">
-        <v>8.3103087435923833</v>
+        <v>9.2225649876126621</v>
       </c>
       <c r="E122" s="4">
-        <v>3.7807781633755662</v>
+        <v>21.667776855487041</v>
       </c>
       <c r="F122" s="4">
-        <v>2.8944369980397511</v>
+        <v>15.407185996126559</v>
       </c>
       <c r="G122">
-        <v>51.381411524039613</v>
+        <v>68.57610740885913</v>
       </c>
       <c r="H122">
         <v>0.25</v>
@@ -5114,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K122" s="4">
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5128,22 +5134,22 @@
         <v>11</v>
       </c>
       <c r="B123" s="4">
-        <v>45.262201897401582</v>
+        <v>1627.060796546037</v>
       </c>
       <c r="C123" s="4">
-        <v>12.719363064744689</v>
+        <v>281.7157635067947</v>
       </c>
       <c r="D123" s="4">
-        <v>3.8068218008273398</v>
+        <v>42.896651653880582</v>
       </c>
       <c r="E123" s="4">
-        <v>3.8361615727234248</v>
+        <v>22.831117448828198</v>
       </c>
       <c r="F123" s="4">
-        <v>3.5772690079155991</v>
+        <v>12.7724840880147</v>
       </c>
       <c r="G123">
-        <v>69.201817343612632</v>
+        <v>1987.2768132435549</v>
       </c>
       <c r="H123">
         <v>0.25</v>
@@ -5152,13 +5158,13 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K123" s="4">
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5166,22 +5172,22 @@
         <v>11</v>
       </c>
       <c r="B124" s="4">
-        <v>53.967530449314587</v>
+        <v>117.417894718772</v>
       </c>
       <c r="C124" s="4">
-        <v>21.066605325741129</v>
+        <v>51.36964605916112</v>
       </c>
       <c r="D124" s="4">
-        <v>6.7582631037269163</v>
+        <v>22.443891273780299</v>
       </c>
       <c r="E124" s="4">
-        <v>6.6796427354638457</v>
+        <v>23.16280658534308</v>
       </c>
       <c r="F124" s="4">
-        <v>4.5603838356990254</v>
+        <v>22.447236792300281</v>
       </c>
       <c r="G124">
-        <v>93.032425449945492</v>
+        <v>236.84147542935671</v>
       </c>
       <c r="H124">
         <v>0.25</v>
@@ -5190,13 +5196,13 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K124" s="4">
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5204,22 +5210,22 @@
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>9845.1008094026984</v>
+        <v>769.43608477581495</v>
       </c>
       <c r="C125" s="4">
-        <v>1000.830896013247</v>
+        <v>153.6363541207466</v>
       </c>
       <c r="D125" s="4">
-        <v>72.705852191902864</v>
+        <v>56.586371540154893</v>
       </c>
       <c r="E125" s="4">
-        <v>10.778618151879339</v>
+        <v>23.20610041175917</v>
       </c>
       <c r="F125" s="4">
-        <v>4.969545239577581</v>
+        <v>13.95675313255088</v>
       </c>
       <c r="G125">
-        <v>10934.3857209993</v>
+        <v>1016.821663981027</v>
       </c>
       <c r="H125">
         <v>0.25</v>
@@ -5228,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K125" s="4">
         <v>1</v>
@@ -5242,22 +5248,22 @@
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>89.404935171893783</v>
+        <v>50.851135145250097</v>
       </c>
       <c r="C126" s="4">
-        <v>20.883798608676859</v>
+        <v>15.517830075811441</v>
       </c>
       <c r="D126" s="4">
-        <v>7.4974753732051704</v>
+        <v>14.147051922118539</v>
       </c>
       <c r="E126" s="4">
-        <v>5.296322397355274</v>
+        <v>23.24258746740945</v>
       </c>
       <c r="F126" s="4">
-        <v>5.2712080050949472</v>
+        <v>9.6455851507750783</v>
       </c>
       <c r="G126">
-        <v>128.35373955622609</v>
+        <v>113.40418976136461</v>
       </c>
       <c r="H126">
         <v>0.25</v>
@@ -5266,13 +5272,13 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K126" s="4">
         <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5280,22 +5286,22 @@
         <v>11</v>
       </c>
       <c r="B127" s="4">
-        <v>35.06153391525033</v>
+        <v>199.12311799769321</v>
       </c>
       <c r="C127" s="4">
-        <v>12.2203299094082</v>
+        <v>13.740039791010821</v>
       </c>
       <c r="D127" s="4">
-        <v>3.8195366885511701</v>
+        <v>53.469975516234022</v>
       </c>
       <c r="E127" s="4">
-        <v>5.8402983581542554</v>
+        <v>23.552890514878229</v>
       </c>
       <c r="F127" s="4">
-        <v>5.2861774959392216</v>
+        <v>8.5471425266448406</v>
       </c>
       <c r="G127">
-        <v>62.227876367303168</v>
+        <v>298.43316634646112</v>
       </c>
       <c r="H127">
         <v>0.25</v>
@@ -5304,36 +5310,36 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K127" s="4">
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="4">
-        <v>20.732283900144079</v>
-      </c>
-      <c r="C128" s="4">
-        <v>30.93123892916751</v>
-      </c>
-      <c r="D128" s="4">
-        <v>12.61129604720696</v>
-      </c>
-      <c r="E128" s="4">
-        <v>6.1737607016627649</v>
-      </c>
-      <c r="F128" s="4">
-        <v>5.6702361093773694</v>
+      <c r="B128" s="3">
+        <v>39.781599638440063</v>
+      </c>
+      <c r="C128" s="3">
+        <v>25.177484900755381</v>
+      </c>
+      <c r="D128" s="3">
+        <v>74.983359991370008</v>
+      </c>
+      <c r="E128" s="3">
+        <v>24.529964473754269</v>
+      </c>
+      <c r="F128" s="3">
+        <v>27.498231608916381</v>
       </c>
       <c r="G128">
-        <v>76.11881568755868</v>
+        <v>191.9706406132361</v>
       </c>
       <c r="H128">
         <v>0.25</v>
@@ -5342,13 +5348,13 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>21</v>
-      </c>
-      <c r="K128" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K128" s="3">
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5356,22 +5362,22 @@
         <v>11</v>
       </c>
       <c r="B129" s="4">
-        <v>26.481415580878529</v>
+        <v>10.394931836917101</v>
       </c>
       <c r="C129" s="4">
-        <v>9.9912097590094113</v>
+        <v>19.86191487877592</v>
       </c>
       <c r="D129" s="4">
-        <v>11.30678091404134</v>
+        <v>48.639561802601037</v>
       </c>
       <c r="E129" s="4">
-        <v>15.49355513694309</v>
+        <v>27.935608981494401</v>
       </c>
       <c r="F129" s="4">
-        <v>6.7021926160728222</v>
+        <v>12.634497893132689</v>
       </c>
       <c r="G129">
-        <v>69.975154006945175</v>
+        <v>119.4665153929211</v>
       </c>
       <c r="H129">
         <v>0.25</v>
@@ -5380,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K129" s="4">
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -5394,22 +5400,22 @@
         <v>11</v>
       </c>
       <c r="B130" s="4">
-        <v>75.872437436443533</v>
+        <v>1661.587540421041</v>
       </c>
       <c r="C130" s="4">
-        <v>25.338921339397299</v>
+        <v>257.61843865082369</v>
       </c>
       <c r="D130" s="4">
-        <v>62.548023206335543</v>
+        <v>63.784349383303841</v>
       </c>
       <c r="E130" s="4">
-        <v>18.510127327135798</v>
+        <v>28.329033021626621</v>
       </c>
       <c r="F130" s="4">
-        <v>6.791947406579415</v>
+        <v>10.2915984876498</v>
       </c>
       <c r="G130">
-        <v>189.06145671589161</v>
+        <v>2021.6109599644451</v>
       </c>
       <c r="H130">
         <v>0.25</v>
@@ -5418,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K130" s="4">
         <v>1</v>
@@ -5432,22 +5438,22 @@
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>28.386321439380179</v>
+        <v>62.172771234277413</v>
       </c>
       <c r="C131" s="4">
-        <v>11.55540323828507</v>
+        <v>49.107304690453198</v>
       </c>
       <c r="D131" s="4">
-        <v>6.6475410105570516</v>
+        <v>40.125189845637777</v>
       </c>
       <c r="E131" s="4">
-        <v>8.3523138994634856</v>
+        <v>29.685802342485118</v>
       </c>
       <c r="F131" s="4">
-        <v>7.5173434184479824</v>
+        <v>15.372714595848899</v>
       </c>
       <c r="G131">
-        <v>62.458923006133787</v>
+        <v>196.46378270870241</v>
       </c>
       <c r="H131">
         <v>0.25</v>
@@ -5456,13 +5462,13 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K131" s="4">
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5470,22 +5476,22 @@
         <v>11</v>
       </c>
       <c r="B132" s="4">
-        <v>16.717529527682821</v>
+        <v>35.684823196883059</v>
       </c>
       <c r="C132" s="4">
-        <v>8.1709756681275376</v>
+        <v>18.99350963669372</v>
       </c>
       <c r="D132" s="4">
-        <v>8.5727810700179425</v>
+        <v>19.952993280119891</v>
       </c>
       <c r="E132" s="4">
-        <v>7.6241972538560479</v>
+        <v>31.05295435773742</v>
       </c>
       <c r="F132" s="4">
-        <v>7.8628194299895888</v>
+        <v>33.299682294052261</v>
       </c>
       <c r="G132">
-        <v>48.948302949673952</v>
+        <v>138.98396276548641</v>
       </c>
       <c r="H132">
         <v>0.25</v>
@@ -5494,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K132" s="4">
         <v>1</v>
@@ -5508,22 +5514,22 @@
         <v>11</v>
       </c>
       <c r="B133" s="4">
-        <v>16.23851386986366</v>
+        <v>85.202990072200322</v>
       </c>
       <c r="C133" s="4">
-        <v>10.557598727034019</v>
+        <v>33.771929002371827</v>
       </c>
       <c r="D133" s="4">
-        <v>5.8790701919922634</v>
+        <v>13.516622362365281</v>
       </c>
       <c r="E133" s="4">
-        <v>7.7086934326609491</v>
+        <v>32.031563012184051</v>
       </c>
       <c r="F133" s="4">
-        <v>8.3357305681055056</v>
+        <v>57.071056891900952</v>
       </c>
       <c r="G133">
-        <v>48.71960678965641</v>
+        <v>221.59416134102241</v>
       </c>
       <c r="H133">
         <v>0.25</v>
@@ -5532,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K133" s="4">
         <v>1</v>
@@ -5546,22 +5552,22 @@
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>1661.587540421041</v>
+        <v>242.11352472900751</v>
       </c>
       <c r="C134" s="4">
-        <v>257.61843865082369</v>
+        <v>126.1533955758955</v>
       </c>
       <c r="D134" s="4">
-        <v>63.784349383303841</v>
+        <v>86.079449539636613</v>
       </c>
       <c r="E134" s="4">
-        <v>28.329033021626621</v>
+        <v>32.899585529466577</v>
       </c>
       <c r="F134" s="4">
-        <v>10.2915984876498</v>
+        <v>13.0311915706643</v>
       </c>
       <c r="G134">
-        <v>2021.6109599644451</v>
+        <v>500.27714694467039</v>
       </c>
       <c r="H134">
         <v>0.25</v>
@@ -5570,36 +5576,36 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K134" s="4">
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="4">
-        <v>36.382152279478518</v>
-      </c>
-      <c r="C135" s="4">
-        <v>18.03997685151192</v>
-      </c>
-      <c r="D135" s="4">
-        <v>22.660792073851059</v>
-      </c>
-      <c r="E135" s="4">
-        <v>13.46818433218205</v>
-      </c>
-      <c r="F135" s="4">
-        <v>11.23415847118874</v>
+      <c r="B135" s="3">
+        <v>25.642612685185529</v>
+      </c>
+      <c r="C135" s="3">
+        <v>52.667625059451652</v>
+      </c>
+      <c r="D135" s="3">
+        <v>26.65598727327157</v>
+      </c>
+      <c r="E135" s="3">
+        <v>35.677363001828567</v>
+      </c>
+      <c r="F135" s="3">
+        <v>61.227644535106649</v>
       </c>
       <c r="G135">
-        <v>101.78526400821229</v>
+        <v>201.87123255484391</v>
       </c>
       <c r="H135">
         <v>0.25</v>
@@ -5608,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>24</v>
-      </c>
-      <c r="K135" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K135" s="3">
+        <v>0</v>
       </c>
       <c r="L135" t="s">
         <v>14</v>
@@ -5622,22 +5628,22 @@
         <v>11</v>
       </c>
       <c r="B136" s="4">
-        <v>147.3766595958981</v>
+        <v>37.983567670392652</v>
       </c>
       <c r="C136" s="4">
-        <v>32.753974166642848</v>
+        <v>59.446696640866257</v>
       </c>
       <c r="D136" s="4">
-        <v>7.2478242535118813</v>
+        <v>67.585315373969863</v>
       </c>
       <c r="E136" s="4">
-        <v>12.50332922309099</v>
+        <v>69.366770836105758</v>
       </c>
       <c r="F136" s="4">
-        <v>11.65585630324493</v>
+        <v>41.056262861072327</v>
       </c>
       <c r="G136">
-        <v>211.53764354238879</v>
+        <v>275.43861338240691</v>
       </c>
       <c r="H136">
         <v>0.25</v>
@@ -5646,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K136" s="4">
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5660,22 +5666,22 @@
         <v>11</v>
       </c>
       <c r="B137" s="4">
-        <v>769.43608477581495</v>
+        <v>1788.240515277113</v>
       </c>
       <c r="C137" s="4">
-        <v>153.6363541207466</v>
+        <v>379.62437187583902</v>
       </c>
       <c r="D137" s="4">
-        <v>56.586371540154893</v>
+        <v>51.815715035801929</v>
       </c>
       <c r="E137" s="4">
-        <v>23.20610041175917</v>
+        <v>74.350981378313918</v>
       </c>
       <c r="F137" s="4">
-        <v>13.95675313255088</v>
+        <v>82.756138049302223</v>
       </c>
       <c r="G137">
-        <v>1016.821663981027</v>
+        <v>2376.7877216163702</v>
       </c>
       <c r="H137">
         <v>0.25</v>
@@ -5684,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K137" s="4">
         <v>1</v>
@@ -5698,22 +5704,22 @@
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>62.039182426180957</v>
+        <v>111.6763005413401</v>
       </c>
       <c r="C138" s="4">
-        <v>19.667940116982749</v>
+        <v>69.412852783877639</v>
       </c>
       <c r="D138" s="4">
-        <v>15.035601615444349</v>
+        <v>67.216481979620866</v>
       </c>
       <c r="E138" s="4">
-        <v>14.87348969370538</v>
+        <v>88.241781580275884</v>
       </c>
       <c r="F138" s="4">
-        <v>17.424722169198262</v>
+        <v>51.727457800977596</v>
       </c>
       <c r="G138">
-        <v>129.0409360215117</v>
+        <v>388.27487468609189</v>
       </c>
       <c r="H138">
         <v>0.25</v>
@@ -5722,13 +5728,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K138" s="4">
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -5736,22 +5742,22 @@
         <v>11</v>
       </c>
       <c r="B139" s="4">
-        <v>292.54890479927059</v>
+        <v>2173.389490393598</v>
       </c>
       <c r="C139" s="4">
-        <v>103.70927480601</v>
+        <v>274.95231033396612</v>
       </c>
       <c r="D139" s="4">
-        <v>20.497284572088549</v>
+        <v>137.20752903036021</v>
       </c>
       <c r="E139" s="4">
-        <v>17.853182959421719</v>
+        <v>131.71597407743181</v>
       </c>
       <c r="F139" s="4">
-        <v>28.7040630322795</v>
+        <v>839.41810087488477</v>
       </c>
       <c r="G139">
-        <v>463.31271016907027</v>
+        <v>3556.6834047102411</v>
       </c>
       <c r="H139">
         <v>0.25</v>
@@ -5760,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K139" s="4">
         <v>1</v>
@@ -5774,22 +5780,22 @@
         <v>11</v>
       </c>
       <c r="B140" s="4">
-        <v>35.684823196883059</v>
+        <v>168.9889215248248</v>
       </c>
       <c r="C140" s="4">
-        <v>18.99350963669372</v>
+        <v>70.100459308810855</v>
       </c>
       <c r="D140" s="4">
-        <v>19.952993280119891</v>
+        <v>153.73618754268239</v>
       </c>
       <c r="E140" s="4">
-        <v>31.05295435773742</v>
+        <v>135.3414330216718</v>
       </c>
       <c r="F140" s="4">
-        <v>33.299682294052261</v>
+        <v>51.254628523242957</v>
       </c>
       <c r="G140">
-        <v>138.98396276548641</v>
+        <v>579.42162992123292</v>
       </c>
       <c r="H140">
         <v>0.25</v>
@@ -5798,36 +5804,36 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K140" s="4">
         <v>1</v>
       </c>
       <c r="L140" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="4">
-        <v>85.202990072200322</v>
-      </c>
-      <c r="C141" s="4">
-        <v>33.771929002371827</v>
-      </c>
-      <c r="D141" s="4">
-        <v>13.516622362365281</v>
-      </c>
-      <c r="E141" s="4">
-        <v>32.031563012184051</v>
-      </c>
-      <c r="F141" s="4">
-        <v>57.071056891900952</v>
+      <c r="B141" s="3">
+        <v>1023.564935792255</v>
+      </c>
+      <c r="C141" s="3">
+        <v>176.36715818271571</v>
+      </c>
+      <c r="D141" s="3">
+        <v>133.04864822838769</v>
+      </c>
+      <c r="E141" s="3">
+        <v>139.9290483393635</v>
+      </c>
+      <c r="F141" s="3">
+        <v>51.192314513606171</v>
       </c>
       <c r="G141">
-        <v>221.59416134102241</v>
+        <v>1524.1021050563279</v>
       </c>
       <c r="H141">
         <v>0.25</v>
@@ -5836,10 +5842,10 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>6</v>
-      </c>
-      <c r="K141" s="4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0</v>
       </c>
       <c r="L141" t="s">
         <v>14</v>
@@ -5850,22 +5856,22 @@
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>1788.240515277113</v>
+        <v>1610.9381518709399</v>
       </c>
       <c r="C142" s="4">
-        <v>379.62437187583902</v>
+        <v>651.74388888060173</v>
       </c>
       <c r="D142" s="4">
-        <v>51.815715035801929</v>
+        <v>346.75938949187741</v>
       </c>
       <c r="E142" s="4">
-        <v>74.350981378313918</v>
+        <v>376.50580803374078</v>
       </c>
       <c r="F142" s="4">
-        <v>82.756138049302223</v>
+        <v>261.90512236207348</v>
       </c>
       <c r="G142">
-        <v>2376.7877216163702</v>
+        <v>3247.8523606392341</v>
       </c>
       <c r="H142">
         <v>0.25</v>
@@ -5874,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K142" s="4">
         <v>1</v>
@@ -5888,22 +5894,22 @@
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>1610.9381518709399</v>
+        <v>1058.6132980323821</v>
       </c>
       <c r="C143" s="4">
-        <v>651.74388888060173</v>
+        <v>416.51198958127628</v>
       </c>
       <c r="D143" s="4">
-        <v>346.75938949187741</v>
+        <v>295.2026442210045</v>
       </c>
       <c r="E143" s="4">
-        <v>376.50580803374078</v>
+        <v>461.34829904503619</v>
       </c>
       <c r="F143" s="4">
-        <v>261.90512236207348</v>
+        <v>394.77962806697838</v>
       </c>
       <c r="G143">
-        <v>3247.8523606392341</v>
+        <v>2626.4558589466778</v>
       </c>
       <c r="H143">
         <v>0.25</v>
@@ -5912,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K143" s="4">
         <v>1</v>
@@ -5926,22 +5932,22 @@
         <v>11</v>
       </c>
       <c r="B144" s="4">
-        <v>1058.6132980323821</v>
+        <v>313.21407363881099</v>
       </c>
       <c r="C144" s="4">
-        <v>416.51198958127628</v>
+        <v>512.843961462283</v>
       </c>
       <c r="D144" s="4">
-        <v>295.2026442210045</v>
+        <v>555.697033534664</v>
       </c>
       <c r="E144" s="4">
-        <v>461.34829904503619</v>
+        <v>668.76922594661391</v>
       </c>
       <c r="F144" s="4">
-        <v>394.77962806697838</v>
+        <v>368.69087071631031</v>
       </c>
       <c r="G144">
-        <v>2626.4558589466778</v>
+        <v>2419.2151652986822</v>
       </c>
       <c r="H144">
         <v>0.25</v>
@@ -5950,13 +5956,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K144" s="4">
         <v>1</v>
       </c>
       <c r="L144" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5964,22 +5970,22 @@
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>2173.389490393598</v>
+        <v>8784.98870156468</v>
       </c>
       <c r="C145" s="4">
-        <v>274.95231033396612</v>
+        <v>2818.268687411462</v>
       </c>
       <c r="D145" s="4">
-        <v>137.20752903036021</v>
+        <v>1203.0465472662811</v>
       </c>
       <c r="E145" s="4">
-        <v>131.71597407743181</v>
+        <v>1890.5609016794949</v>
       </c>
       <c r="F145" s="4">
-        <v>839.41810087488477</v>
+        <v>892.4171017069408</v>
       </c>
       <c r="G145">
-        <v>3556.6834047102411</v>
+        <v>15589.28193962886</v>
       </c>
       <c r="H145">
         <v>0.25</v>
@@ -5988,16 +5994,20 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K145" s="4">
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L150">
+    <sortCondition ref="E2:E150"/>
+    <sortCondition ref="F2:F150"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>